--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692937.622423352</v>
+        <v>1715484.460297776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3011791.733846788</v>
+        <v>3011791.733846786</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10936416.84786417</v>
+        <v>10949029.13364798</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6494530.60281881</v>
+        <v>6493142.577089019</v>
       </c>
     </row>
     <row r="11">
@@ -1844,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>61.41019607786532</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>67.58039164023427</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.11166625254926</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.87286755377731</v>
       </c>
       <c r="S18" t="n">
-        <v>69.72093106024676</v>
+        <v>35.3220063809493</v>
       </c>
       <c r="T18" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>61.41019607786532</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.72093106024676</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="I19" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>53.07421351780695</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.41019607786532</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.50617812242731</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>123.7654902720261</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>129.9408056104745</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>52.56170073122093</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>46.62893947357385</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.86547801264614</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>129.3908149638408</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.8723725548246</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>183.6490259409778</v>
       </c>
       <c r="V21" t="n">
-        <v>190.032893771584</v>
+        <v>190.5082310094283</v>
       </c>
       <c r="W21" t="n">
-        <v>119.0398289236613</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>163.0052918256362</v>
+        <v>163.4806290634805</v>
       </c>
       <c r="Y21" t="n">
-        <v>162.9150023994631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>73.23802496782902</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.9348163674426</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>113.1581187872613</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>51.06682397667578</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>185.1778960504403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>175.0151562096351</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,67 +2321,67 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>77.51866430701328</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>166.7277134462483</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>209.0532967678395</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>105.1839610801335</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>107.1014245633085</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.7654902720261</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.1527094246418</v>
       </c>
       <c r="E24" t="n">
-        <v>114.8773870775597</v>
+        <v>115.3527243154039</v>
       </c>
       <c r="F24" t="n">
-        <v>102.3015190155427</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>94.57582378536941</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47.10427671141808</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.49070258384158</v>
+        <v>57.86547801264614</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>129.3908149638408</v>
       </c>
       <c r="T24" t="n">
-        <v>157.3970353169804</v>
+        <v>157.8723725548246</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>190.5082310094283</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>163.0052918256362</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.9150023994631</v>
+        <v>132.0816452842155</v>
       </c>
     </row>
     <row r="25">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.65335464509</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2232859806175</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.6827815494171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>43.86968711169739</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.63363008495072</v>
+        <v>72.51380810985221</v>
       </c>
     </row>
     <row r="26">
@@ -2552,14 +2552,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>64.21922286300803</v>
       </c>
       <c r="H26" t="n">
-        <v>169.9299371972316</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>148.066162780434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.94660117859129</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>192.4231361452781</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.43628900182551</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>88.52254880208037</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>32.60683098636291</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.65948560341201</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>49.82571744652459</v>
       </c>
       <c r="I27" t="n">
-        <v>30.47411608885669</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.23531739008475</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>112.7606543412794</v>
+        <v>109.273444313866</v>
       </c>
       <c r="T27" t="n">
-        <v>141.2422119322632</v>
+        <v>137.7550019048497</v>
       </c>
       <c r="U27" t="n">
-        <v>167.0188653184164</v>
+        <v>163.5316552910029</v>
       </c>
       <c r="V27" t="n">
-        <v>173.8780703868669</v>
+        <v>170.3908603594534</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>189.2852563709477</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>146.760179014746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.9094634193789</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>88.28679379776648</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>118.3708746146111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>215.9127686222531</v>
+        <v>224.1132715466191</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>163.2999285990653</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>61.3547568271045</v>
       </c>
       <c r="D29" t="n">
-        <v>80.42604568714172</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G30" t="n">
-        <v>23.10068338558301</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D31" t="n">
         <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>47.98433872981194</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>99.42085805579499</v>
       </c>
       <c r="U31" t="n">
         <v>172.0761955788632</v>
       </c>
       <c r="V31" t="n">
-        <v>94.60661621387838</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W31" t="n">
         <v>172.2801645589633</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>234.0838601208353</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>52.2903498722397</v>
       </c>
       <c r="C33" t="n">
-        <v>58.46566521068834</v>
+        <v>58.4656652106881</v>
       </c>
       <c r="D33" t="n">
         <v>33.20223178701112</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621018</v>
+        <v>57.44033732621021</v>
       </c>
       <c r="T33" t="n">
         <v>85.92189491719397</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.298862989407959</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>16.73724812207079</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
         <v>172.0761955788632</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W34" t="n">
         <v>172.2801645589633</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>86.69445686285474</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>110.8604053276349</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>237.0055244809166</v>
+        <v>118.8635461866051</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.29773941337088</v>
+        <v>28.20167537866595</v>
       </c>
       <c r="C36" t="n">
         <v>60.47305475181928</v>
@@ -3351,7 +3351,7 @@
         <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>19.31357218419957</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
@@ -3430,16 +3430,16 @@
         <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>43.21503069076182</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>40.94116839263108</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>108.4035143108637</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>77.18394136884444</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,61 +3515,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>139.11020867134</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>237.0055244809166</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>227.2393578792707</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>215.5168142336385</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>10.54350240819194</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>32.83376815688742</v>
+        <v>6.737704122182504</v>
       </c>
       <c r="G39" t="n">
         <v>25.10807292671417</v>
@@ -3633,7 +3633,7 @@
         <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>61.83322042362008</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
         <v>113.7059378444784</v>
@@ -3661,25 +3661,25 @@
         <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>72.21769814818103</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>174.2875541000946</v>
+        <v>127.468600518929</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>106.3492091155983</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>84.23250891347314</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>150.8751895655768</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>16.30581771059331</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
-        <v>3.548537584509641</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>26.93627899587126</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>123.7108318168761</v>
       </c>
     </row>
     <row r="44">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278.883724240987</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="C17" t="n">
-        <v>208.4585413518489</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="D17" t="n">
-        <v>146.428040263096</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="E17" t="n">
-        <v>76.00285737395788</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="F17" t="n">
-        <v>76.00285737395788</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G17" t="n">
-        <v>76.00285737395788</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H17" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I17" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J17" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K17" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="L17" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="M17" t="n">
-        <v>71.81255899205421</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="N17" t="n">
-        <v>140.8362807416985</v>
+        <v>158.0558660069057</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8600024913428</v>
+        <v>230.9457071265953</v>
       </c>
       <c r="P17" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R17" t="n">
-        <v>278.883724240987</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="S17" t="n">
-        <v>278.883724240987</v>
+        <v>151.9022738911127</v>
       </c>
       <c r="T17" t="n">
-        <v>278.883724240987</v>
+        <v>74.40111374258582</v>
       </c>
       <c r="U17" t="n">
-        <v>278.883724240987</v>
+        <v>74.40111374258582</v>
       </c>
       <c r="V17" t="n">
-        <v>278.883724240987</v>
+        <v>74.40111374258582</v>
       </c>
       <c r="W17" t="n">
-        <v>278.883724240987</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="X17" t="n">
-        <v>278.883724240987</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="Y17" t="n">
-        <v>278.883724240987</v>
+        <v>6.138091883763329</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="C18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="D18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="E18" t="n">
-        <v>5.577674484819741</v>
+        <v>133.2469957217339</v>
       </c>
       <c r="F18" t="n">
-        <v>5.577674484819741</v>
+        <v>55.74583557320702</v>
       </c>
       <c r="G18" t="n">
-        <v>5.577674484819741</v>
+        <v>55.74583557320702</v>
       </c>
       <c r="H18" t="n">
-        <v>5.577674484819741</v>
+        <v>55.74583557320702</v>
       </c>
       <c r="I18" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J18" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60139623446402</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="L18" t="n">
-        <v>140.8362807416985</v>
+        <v>158.0558660069057</v>
       </c>
       <c r="M18" t="n">
-        <v>209.8600024913428</v>
+        <v>234.0147530684769</v>
       </c>
       <c r="N18" t="n">
-        <v>209.8600024913428</v>
+        <v>234.0147530684769</v>
       </c>
       <c r="O18" t="n">
-        <v>209.8600024913428</v>
+        <v>234.0147530684769</v>
       </c>
       <c r="P18" t="n">
-        <v>209.8600024913428</v>
+        <v>237.5100356748372</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R18" t="n">
-        <v>278.883724240987</v>
+        <v>246.426950194452</v>
       </c>
       <c r="S18" t="n">
-        <v>208.4585413518489</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="T18" t="n">
-        <v>138.0333584627107</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="U18" t="n">
-        <v>138.0333584627107</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="V18" t="n">
-        <v>67.60817557357259</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="W18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="X18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.577674484819741</v>
+        <v>210.7481558702608</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="C19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="D19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="E19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="F19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="G19" t="n">
-        <v>76.00285737395788</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00285737395788</v>
+        <v>137.2495687169437</v>
       </c>
       <c r="I19" t="n">
-        <v>5.577674484819741</v>
+        <v>59.74840856841682</v>
       </c>
       <c r="J19" t="n">
-        <v>5.577674484819741</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K19" t="n">
-        <v>23.88357837553867</v>
+        <v>23.97341190901647</v>
       </c>
       <c r="L19" t="n">
-        <v>91.55040418159459</v>
+        <v>53.57753589212592</v>
       </c>
       <c r="M19" t="n">
-        <v>160.5741259312389</v>
+        <v>129.5364229536971</v>
       </c>
       <c r="N19" t="n">
-        <v>204.2649765866752</v>
+        <v>205.4953100152683</v>
       </c>
       <c r="O19" t="n">
-        <v>241.2252497703995</v>
+        <v>269.7167035830448</v>
       </c>
       <c r="P19" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q19" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R19" t="n">
-        <v>278.883724240987</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="S19" t="n">
-        <v>208.4585413518489</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="T19" t="n">
-        <v>208.4585413518489</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="U19" t="n">
-        <v>146.428040263096</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="V19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="W19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="X19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.428040263096</v>
+        <v>214.7507288654706</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>197.6344209728879</v>
+        <v>72.37377011144599</v>
       </c>
       <c r="C21" t="n">
-        <v>66.38108197240854</v>
+        <v>72.37377011144599</v>
       </c>
       <c r="D21" t="n">
-        <v>66.38108197240854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>66.38108197240854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>66.38108197240854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>66.38108197240854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>66.38108197240854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>905.6071777200846</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>774.909384827316</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>615.4423418426446</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>429.9382752355963</v>
       </c>
       <c r="V21" t="n">
-        <v>772.1047375595413</v>
+        <v>237.5057186604162</v>
       </c>
       <c r="W21" t="n">
-        <v>651.8624861214995</v>
+        <v>237.5057186604162</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2106761966144</v>
+        <v>72.37377011144599</v>
       </c>
       <c r="Y21" t="n">
-        <v>322.6500677123082</v>
+        <v>72.37377011144599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>306.3112028388791</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>306.3112028388791</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>306.3112028388791</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>306.3112028388791</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>306.3112028388791</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>185.1649236798461</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>70.86379359170341</v>
       </c>
       <c r="J22" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>39.57436264665152</v>
+        <v>39.10377878118572</v>
       </c>
       <c r="L22" t="n">
-        <v>109.2285040984273</v>
+        <v>108.2873363674957</v>
       </c>
       <c r="M22" t="n">
-        <v>190.7565587347123</v>
+        <v>189.3448071383149</v>
       </c>
       <c r="N22" t="n">
-        <v>276.7874258342114</v>
+        <v>274.9050903723482</v>
       </c>
       <c r="O22" t="n">
-        <v>343.4667189131735</v>
+        <v>341.1137995858446</v>
       </c>
       <c r="P22" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="Q22" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="R22" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="S22" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="T22" t="n">
-        <v>196.0641291805512</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2890058366862</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>368.976345087781</v>
+        <v>97.58282422840796</v>
       </c>
       <c r="C23" t="n">
-        <v>368.976345087781</v>
+        <v>97.58282422840796</v>
       </c>
       <c r="D23" t="n">
-        <v>368.976345087781</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>368.976345087781</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>125.5275684436809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>125.5275684436809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>125.5275684436809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>855.8738983759812</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>855.8738983759812</v>
+        <v>795.645323746749</v>
       </c>
       <c r="T23" t="n">
-        <v>855.8738983759812</v>
+        <v>795.645323746749</v>
       </c>
       <c r="U23" t="n">
-        <v>855.8738983759812</v>
+        <v>584.4803775166081</v>
       </c>
       <c r="V23" t="n">
-        <v>855.8738983759812</v>
+        <v>341.031600872508</v>
       </c>
       <c r="W23" t="n">
-        <v>855.8738983759812</v>
+        <v>341.031600872508</v>
       </c>
       <c r="X23" t="n">
-        <v>612.4251217318811</v>
+        <v>341.031600872508</v>
       </c>
       <c r="Y23" t="n">
-        <v>612.4251217318811</v>
+        <v>341.031600872508</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>334.1849106642246</v>
+        <v>289.5939819500751</v>
       </c>
       <c r="C24" t="n">
-        <v>334.1849106642246</v>
+        <v>289.5939819500751</v>
       </c>
       <c r="D24" t="n">
-        <v>334.1849106642246</v>
+        <v>183.3791239453865</v>
       </c>
       <c r="E24" t="n">
-        <v>218.1471459394168</v>
+        <v>66.86122059649361</v>
       </c>
       <c r="F24" t="n">
-        <v>114.8122782469495</v>
+        <v>66.86122059649361</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>66.86122059649361</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>66.86122059649361</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>947.3998801734225</v>
+        <v>905.6071777200846</v>
       </c>
       <c r="S24" t="n">
-        <v>947.3998801734225</v>
+        <v>774.909384827316</v>
       </c>
       <c r="T24" t="n">
-        <v>788.4129758128363</v>
+        <v>615.4423418426446</v>
       </c>
       <c r="U24" t="n">
-        <v>788.4129758128363</v>
+        <v>615.4423418426446</v>
       </c>
       <c r="V24" t="n">
-        <v>788.4129758128363</v>
+        <v>423.0097852674645</v>
       </c>
       <c r="W24" t="n">
-        <v>788.4129758128363</v>
+        <v>423.0097852674645</v>
       </c>
       <c r="X24" t="n">
-        <v>623.7611658879512</v>
+        <v>423.0097852674645</v>
       </c>
       <c r="Y24" t="n">
-        <v>459.200557403645</v>
+        <v>289.5939819500751</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>944.2252059298779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>944.2252059298779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>944.2252059298779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>944.2252059298779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>840.5349487126152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>714.0467810554258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>714.0467810554258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>600.2257895913681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>600.2257895913681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>620.5190091278068</v>
+        <v>39.10377878118572</v>
       </c>
       <c r="L25" t="n">
-        <v>690.1731505795826</v>
+        <v>108.2873363674957</v>
       </c>
       <c r="M25" t="n">
-        <v>771.7012052158676</v>
+        <v>189.3448071383149</v>
       </c>
       <c r="N25" t="n">
-        <v>857.7320723153667</v>
+        <v>274.9050903723482</v>
       </c>
       <c r="O25" t="n">
-        <v>924.4113653943289</v>
+        <v>341.1137995858446</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>335.9761905723453</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>92.52741392824527</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>92.52741392824527</v>
       </c>
       <c r="Y25" t="n">
-        <v>944.2252059298779</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>434.3763209636376</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>190.9275443195376</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>190.9275443195376</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>190.9275443195376</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>190.9275443195376</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>190.9275443195376</v>
+        <v>412.2917003406099</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>168.8429236965098</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>872.1919017948874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>872.1919017948874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>872.1919017948874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>677.8250976077377</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>677.8250976077377</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>434.3763209636376</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>434.3763209636376</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>434.3763209636376</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.4797945151997</v>
+        <v>186.0407734499092</v>
       </c>
       <c r="C27" t="n">
-        <v>139.4797945151997</v>
+        <v>186.0407734499092</v>
       </c>
       <c r="D27" t="n">
-        <v>50.06307855350231</v>
+        <v>186.0407734499092</v>
       </c>
       <c r="E27" t="n">
-        <v>50.06307855350231</v>
+        <v>153.1045805343911</v>
       </c>
       <c r="F27" t="n">
-        <v>50.06307855350231</v>
+        <v>69.61015063195474</v>
       </c>
       <c r="G27" t="n">
-        <v>50.06307855350231</v>
+        <v>69.61015063195474</v>
       </c>
       <c r="H27" t="n">
-        <v>50.06307855350231</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>234.810827406191</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>922.4053197630759</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>808.5056689132987</v>
+        <v>853.6799390319837</v>
       </c>
       <c r="T27" t="n">
-        <v>665.8367679716187</v>
+        <v>714.5334724614285</v>
       </c>
       <c r="U27" t="n">
-        <v>497.1308434075617</v>
+        <v>549.3499822684962</v>
       </c>
       <c r="V27" t="n">
-        <v>321.4964288753729</v>
+        <v>377.2380021074322</v>
       </c>
       <c r="W27" t="n">
-        <v>321.4964288753729</v>
+        <v>186.0407734499092</v>
       </c>
       <c r="X27" t="n">
-        <v>321.4964288753729</v>
+        <v>186.0407734499092</v>
       </c>
       <c r="Y27" t="n">
-        <v>173.2538238099729</v>
+        <v>186.0407734499092</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>108.4597227039162</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6385,49 +6385,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>55.56763779752151</v>
+        <v>59.01997572466085</v>
       </c>
       <c r="L28" t="n">
-        <v>141.2150544001673</v>
+        <v>148.119730254446</v>
       </c>
       <c r="M28" t="n">
-        <v>238.7363841873222</v>
+        <v>249.0933979687403</v>
       </c>
       <c r="N28" t="n">
-        <v>340.7605264376913</v>
+        <v>354.5698781462488</v>
       </c>
       <c r="O28" t="n">
-        <v>423.4330946675234</v>
+        <v>440.6947843032202</v>
       </c>
       <c r="P28" t="n">
-        <v>479.0721599347007</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="Q28" t="n">
-        <v>479.0721599347007</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="R28" t="n">
-        <v>359.505619919942</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="S28" t="n">
-        <v>359.505619919942</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="T28" t="n">
-        <v>359.505619919942</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="U28" t="n">
-        <v>359.505619919942</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="V28" t="n">
-        <v>359.505619919942</v>
+        <v>499.7861874975369</v>
       </c>
       <c r="W28" t="n">
-        <v>141.4119142408985</v>
+        <v>273.4091455312549</v>
       </c>
       <c r="X28" t="n">
-        <v>141.4119142408985</v>
+        <v>108.4597227039162</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.4119142408985</v>
+        <v>108.4597227039162</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>684.6222332468169</v>
+        <v>552.2114603252663</v>
       </c>
       <c r="C29" t="n">
-        <v>441.1734566027168</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="D29" t="n">
-        <v>359.935026615705</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="E29" t="n">
-        <v>116.4862499716049</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="F29" t="n">
-        <v>116.4862499716049</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="G29" t="n">
-        <v>116.4862499716049</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H29" t="n">
-        <v>116.4862499716049</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6494,19 +6494,19 @@
         <v>928.071009890917</v>
       </c>
       <c r="U29" t="n">
-        <v>928.071009890917</v>
+        <v>789.583313799797</v>
       </c>
       <c r="V29" t="n">
-        <v>928.071009890917</v>
+        <v>789.583313799797</v>
       </c>
       <c r="W29" t="n">
-        <v>928.071009890917</v>
+        <v>552.2114603252663</v>
       </c>
       <c r="X29" t="n">
-        <v>684.6222332468169</v>
+        <v>552.2114603252663</v>
       </c>
       <c r="Y29" t="n">
-        <v>684.6222332468169</v>
+        <v>552.2114603252663</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.2773576760403</v>
+        <v>156.0093908793005</v>
       </c>
       <c r="C31" t="n">
-        <v>189.2773576760403</v>
+        <v>102.470009746977</v>
       </c>
       <c r="D31" t="n">
-        <v>154.5575200592881</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="E31" t="n">
-        <v>122.0412282724784</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="F31" t="n">
-        <v>122.0412282724784</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="G31" t="n">
         <v>67.75017213022478</v>
@@ -6646,25 +6646,25 @@
         <v>856.1496427492314</v>
       </c>
       <c r="S31" t="n">
-        <v>745.2670525882772</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="T31" t="n">
-        <v>745.2670525882772</v>
+        <v>755.7245336019637</v>
       </c>
       <c r="U31" t="n">
-        <v>571.4527136197285</v>
+        <v>581.9101946334149</v>
       </c>
       <c r="V31" t="n">
-        <v>475.8904750198513</v>
+        <v>442.6225082231115</v>
       </c>
       <c r="W31" t="n">
-        <v>301.8701067784742</v>
+        <v>268.6021399817344</v>
       </c>
       <c r="X31" t="n">
-        <v>189.2773576760403</v>
+        <v>156.0093908793005</v>
       </c>
       <c r="Y31" t="n">
-        <v>189.2773576760403</v>
+        <v>156.0093908793005</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>490.2369584797062</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>246.7881818356062</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>246.7881818356062</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>726.6853020361056</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>726.6853020361056</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>726.6853020361056</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706289</v>
+        <v>210.1874114706287</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850851</v>
+        <v>151.131183985085</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194173</v>
+        <v>117.5935761194174</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954529</v>
+        <v>73.7529229095453</v>
       </c>
       <c r="F33" t="n">
         <v>42.61516673201373</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070514</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W33" t="n">
         <v>447.8241420744332</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644839</v>
+        <v>355.3694436644837</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951133</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.7563870092418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>62.21700587691839</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>62.21700587691839</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>839.2433315148164</v>
       </c>
       <c r="S34" t="n">
-        <v>681.5796206695481</v>
+        <v>839.2433315148164</v>
       </c>
       <c r="T34" t="n">
-        <v>681.5796206695481</v>
+        <v>724.3920631808226</v>
       </c>
       <c r="U34" t="n">
-        <v>507.7652817009994</v>
+        <v>550.5777242122738</v>
       </c>
       <c r="V34" t="n">
-        <v>507.7652817009994</v>
+        <v>411.2900378019704</v>
       </c>
       <c r="W34" t="n">
-        <v>333.7449134596223</v>
+        <v>237.2696695605932</v>
       </c>
       <c r="X34" t="n">
-        <v>221.1521643571884</v>
+        <v>124.6769204581593</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.7563870092418</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>336.386006486097</v>
+        <v>591.497397747424</v>
       </c>
       <c r="C35" t="n">
-        <v>336.386006486097</v>
+        <v>591.497397747424</v>
       </c>
       <c r="D35" t="n">
-        <v>248.815848038769</v>
+        <v>591.497397747424</v>
       </c>
       <c r="E35" t="n">
-        <v>248.815848038769</v>
+        <v>591.497397747424</v>
       </c>
       <c r="F35" t="n">
-        <v>248.815848038769</v>
+        <v>591.497397747424</v>
       </c>
       <c r="G35" t="n">
-        <v>248.815848038769</v>
+        <v>348.048621103324</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5139161747677</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>926.0433436877541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>828.2810958597249</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>716.3008884580735</v>
+        <v>852.0769481089848</v>
       </c>
       <c r="U35" t="n">
-        <v>575.7855261637906</v>
+        <v>711.5615858147019</v>
       </c>
       <c r="V35" t="n">
-        <v>575.7855261637906</v>
+        <v>711.5615858147019</v>
       </c>
       <c r="W35" t="n">
-        <v>336.386006486097</v>
+        <v>591.497397747424</v>
       </c>
       <c r="X35" t="n">
-        <v>336.386006486097</v>
+        <v>591.497397747424</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.386006486097</v>
+        <v>591.497397747424</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.9660818453266</v>
+        <v>220.3257424864427</v>
       </c>
       <c r="C36" t="n">
-        <v>132.8821881566203</v>
+        <v>159.2418487977363</v>
       </c>
       <c r="D36" t="n">
-        <v>97.31691408778966</v>
+        <v>123.6765747289057</v>
       </c>
       <c r="E36" t="n">
         <v>77.80825531587089</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.1274278819521</v>
+        <v>312.5740902505523</v>
       </c>
       <c r="C37" t="n">
-        <v>274.5603805464659</v>
+        <v>257.0070429150661</v>
       </c>
       <c r="D37" t="n">
-        <v>237.8128767265509</v>
+        <v>220.259539095151</v>
       </c>
       <c r="E37" t="n">
-        <v>203.2689187365784</v>
+        <v>220.259539095151</v>
       </c>
       <c r="F37" t="n">
-        <v>169.7481068310887</v>
+        <v>186.7387271896613</v>
       </c>
       <c r="G37" t="n">
-        <v>113.4293844856723</v>
+        <v>186.7387271896613</v>
       </c>
       <c r="H37" t="n">
-        <v>62.9326892624974</v>
+        <v>186.7387271896613</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="J37" t="n">
-        <v>37.96864458883817</v>
+        <v>161.7746825160021</v>
       </c>
       <c r="K37" t="n">
-        <v>127.0349374753456</v>
+        <v>250.8409754025095</v>
       </c>
       <c r="L37" t="n">
-        <v>265.4621522771901</v>
+        <v>389.268190204354</v>
       </c>
       <c r="M37" t="n">
-        <v>415.7632802635438</v>
+        <v>539.5693181907077</v>
       </c>
       <c r="N37" t="n">
-        <v>570.5672207131116</v>
+        <v>694.3732586402755</v>
       </c>
       <c r="O37" t="n">
-        <v>706.0195871421424</v>
+        <v>829.8256250693062</v>
       </c>
       <c r="P37" t="n">
-        <v>814.4384506085185</v>
+        <v>938.2444885356822</v>
       </c>
       <c r="Q37" t="n">
-        <v>840.2511175834725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>840.2511175834725</v>
+        <v>898.3420573887443</v>
       </c>
       <c r="S37" t="n">
-        <v>840.2511175834725</v>
+        <v>785.4318010246272</v>
       </c>
       <c r="T37" t="n">
-        <v>723.3721830463159</v>
+        <v>785.4318010246272</v>
       </c>
       <c r="U37" t="n">
-        <v>547.5301778746043</v>
+        <v>785.4318010246272</v>
       </c>
       <c r="V37" t="n">
-        <v>506.1754623264921</v>
+        <v>644.1164484111611</v>
       </c>
       <c r="W37" t="n">
-        <v>330.1274278819521</v>
+        <v>534.6179491072584</v>
       </c>
       <c r="X37" t="n">
-        <v>330.1274278819521</v>
+        <v>419.9975338016617</v>
       </c>
       <c r="Y37" t="n">
-        <v>330.1274278819521</v>
+        <v>312.5740902505523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>735.7134013269691</v>
+        <v>340.6934968945597</v>
       </c>
       <c r="C38" t="n">
-        <v>735.7134013269691</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>735.7134013269691</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>492.2646246828691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>492.2646246828691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>248.815848038769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>823.5417932163533</v>
       </c>
       <c r="V38" t="n">
-        <v>746.3634037594862</v>
+        <v>823.5417932163533</v>
       </c>
       <c r="W38" t="n">
-        <v>746.3634037594862</v>
+        <v>584.1422735386598</v>
       </c>
       <c r="X38" t="n">
-        <v>735.7134013269691</v>
+        <v>584.1422735386598</v>
       </c>
       <c r="Y38" t="n">
-        <v>735.7134013269691</v>
+        <v>340.6934968945597</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220.3257424864427</v>
+        <v>193.9660818453266</v>
       </c>
       <c r="C39" t="n">
-        <v>159.2418487977363</v>
+        <v>132.8821881566203</v>
       </c>
       <c r="D39" t="n">
-        <v>123.6765747289057</v>
+        <v>97.31691408778966</v>
       </c>
       <c r="E39" t="n">
-        <v>77.80825531587089</v>
+        <v>51.44859467475482</v>
       </c>
       <c r="F39" t="n">
         <v>44.64283293517654</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7281,22 +7281,22 @@
         <v>904.0089465537258</v>
       </c>
       <c r="T39" t="n">
-        <v>841.5511481460287</v>
+        <v>815.1914875049125</v>
       </c>
       <c r="U39" t="n">
-        <v>726.6966654748385</v>
+        <v>700.3370048337223</v>
       </c>
       <c r="V39" t="n">
-        <v>604.9136928355165</v>
+        <v>578.5540321944003</v>
       </c>
       <c r="W39" t="n">
-        <v>464.0454716997355</v>
+        <v>437.6858110586193</v>
       </c>
       <c r="X39" t="n">
-        <v>369.5631070866233</v>
+        <v>343.2034464455072</v>
       </c>
       <c r="Y39" t="n">
-        <v>275.17194391409</v>
+        <v>248.812283272974</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.6173725842937</v>
+        <v>364.0939315582099</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6173725842937</v>
+        <v>308.5268842227237</v>
       </c>
       <c r="D40" t="n">
-        <v>159.6173725842937</v>
+        <v>271.7793804028086</v>
       </c>
       <c r="E40" t="n">
-        <v>159.6173725842937</v>
+        <v>237.2354224128362</v>
       </c>
       <c r="F40" t="n">
-        <v>126.0965606788041</v>
+        <v>237.2354224128362</v>
       </c>
       <c r="G40" t="n">
-        <v>69.77783833338759</v>
+        <v>237.2354224128362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>186.7387271896613</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="J40" t="n">
-        <v>37.96864458883817</v>
+        <v>161.7746825160021</v>
       </c>
       <c r="K40" t="n">
-        <v>127.0349374753456</v>
+        <v>250.8409754025095</v>
       </c>
       <c r="L40" t="n">
-        <v>265.4621522771901</v>
+        <v>389.268190204354</v>
       </c>
       <c r="M40" t="n">
-        <v>415.7632802635438</v>
+        <v>539.5693181907077</v>
       </c>
       <c r="N40" t="n">
-        <v>570.5672207131116</v>
+        <v>694.3732586402755</v>
       </c>
       <c r="O40" t="n">
-        <v>706.0195871421424</v>
+        <v>829.8256250693062</v>
       </c>
       <c r="P40" t="n">
-        <v>814.4384506085185</v>
+        <v>938.2444885356822</v>
       </c>
       <c r="Q40" t="n">
-        <v>840.2511175834725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>840.2511175834725</v>
+        <v>898.3420573887443</v>
       </c>
       <c r="S40" t="n">
-        <v>840.2511175834725</v>
+        <v>785.4318010246272</v>
       </c>
       <c r="T40" t="n">
-        <v>767.303947736825</v>
+        <v>668.5528664874706</v>
       </c>
       <c r="U40" t="n">
-        <v>767.303947736825</v>
+        <v>668.5528664874706</v>
       </c>
       <c r="V40" t="n">
-        <v>625.9885951233588</v>
+        <v>668.5528664874706</v>
       </c>
       <c r="W40" t="n">
-        <v>449.9405606788188</v>
+        <v>539.7967043471383</v>
       </c>
       <c r="X40" t="n">
-        <v>335.3201453732221</v>
+        <v>539.7967043471383</v>
       </c>
       <c r="Y40" t="n">
-        <v>227.8967018221127</v>
+        <v>432.3732607960289</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.70346862539298</v>
+        <v>430.1216265544373</v>
       </c>
       <c r="C41" t="n">
-        <v>13.70346862539298</v>
+        <v>264.1740100588642</v>
       </c>
       <c r="D41" t="n">
-        <v>13.70346862539298</v>
+        <v>98.22639356329097</v>
       </c>
       <c r="E41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K41" t="n">
-        <v>13.70346862539298</v>
+        <v>116.1580571373718</v>
       </c>
       <c r="L41" t="n">
-        <v>107.1575773564739</v>
+        <v>278.803316064683</v>
       </c>
       <c r="M41" t="n">
-        <v>276.738001595712</v>
+        <v>441.4485749919943</v>
       </c>
       <c r="N41" t="n">
-        <v>446.3184258349502</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="O41" t="n">
-        <v>595.5133759775982</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R41" t="n">
-        <v>685.1734312696492</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="S41" t="n">
-        <v>685.1734312696492</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="T41" t="n">
-        <v>685.1734312696492</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="U41" t="n">
-        <v>685.1734312696492</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="V41" t="n">
-        <v>532.7742498902787</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="W41" t="n">
-        <v>359.7506561353168</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="X41" t="n">
-        <v>186.7270623803549</v>
+        <v>596.0692430500105</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.70346862539298</v>
+        <v>596.0692430500105</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.43867716696128</v>
+        <v>98.55140002905463</v>
       </c>
       <c r="C42" t="n">
-        <v>17.28785002388757</v>
+        <v>98.55140002905463</v>
       </c>
       <c r="D42" t="n">
-        <v>17.28785002388757</v>
+        <v>82.08087708906139</v>
       </c>
       <c r="E42" t="n">
-        <v>17.28785002388757</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K42" t="n">
-        <v>13.70346862539298</v>
+        <v>138.5006112842868</v>
       </c>
       <c r="L42" t="n">
-        <v>183.2838928646312</v>
+        <v>301.1458702115981</v>
       </c>
       <c r="M42" t="n">
-        <v>346.0125827911729</v>
+        <v>463.7911291389094</v>
       </c>
       <c r="N42" t="n">
-        <v>515.5930070304111</v>
+        <v>626.4363880662206</v>
       </c>
       <c r="O42" t="n">
-        <v>515.5930070304111</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="P42" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S42" t="n">
-        <v>606.0582888583714</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T42" t="n">
-        <v>606.0582888583714</v>
+        <v>545.2655958240794</v>
       </c>
       <c r="U42" t="n">
-        <v>472.1368727328137</v>
+        <v>407.341606703312</v>
       </c>
       <c r="V42" t="n">
-        <v>331.2869666391243</v>
+        <v>262.4891276144128</v>
       </c>
       <c r="W42" t="n">
-        <v>171.351812048976</v>
+        <v>98.55140002905463</v>
       </c>
       <c r="X42" t="n">
-        <v>171.351812048976</v>
+        <v>98.55140002905463</v>
       </c>
       <c r="Y42" t="n">
-        <v>171.351812048976</v>
+        <v>98.55140002905463</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.4447481284196</v>
+        <v>141.4801412630706</v>
       </c>
       <c r="C43" t="n">
-        <v>159.4447481284196</v>
+        <v>141.4801412630706</v>
       </c>
       <c r="D43" t="n">
-        <v>103.6303108541372</v>
+        <v>141.4801412630706</v>
       </c>
       <c r="E43" t="n">
-        <v>76.42194823204501</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="F43" t="n">
-        <v>76.42194823204501</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="G43" t="n">
-        <v>76.42194823204501</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="H43" t="n">
-        <v>76.42194823204501</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539298</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327501</v>
+        <v>79.59892084172634</v>
       </c>
       <c r="L43" t="n">
-        <v>203.821973356494</v>
+        <v>195.4157123723402</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642222</v>
+        <v>323.1064170874633</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351646</v>
+        <v>455.2999342658006</v>
       </c>
       <c r="O43" t="n">
-        <v>588.31690378557</v>
+        <v>568.1418774236008</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733206</v>
+        <v>653.9503176187462</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696492</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R43" t="n">
-        <v>600.3913996933899</v>
+        <v>568.3679567510006</v>
       </c>
       <c r="S43" t="n">
-        <v>468.4142098749055</v>
+        <v>432.3881939373065</v>
       </c>
       <c r="T43" t="n">
-        <v>332.4683418833815</v>
+        <v>432.3881939373065</v>
       </c>
       <c r="U43" t="n">
-        <v>159.4447481284196</v>
+        <v>266.4405774417333</v>
       </c>
       <c r="V43" t="n">
-        <v>159.4447481284196</v>
+        <v>266.4405774417333</v>
       </c>
       <c r="W43" t="n">
-        <v>159.4447481284196</v>
+        <v>266.4405774417333</v>
       </c>
       <c r="X43" t="n">
-        <v>159.4447481284196</v>
+        <v>266.4405774417333</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.4447481284196</v>
+        <v>141.4801412630706</v>
       </c>
     </row>
     <row r="44">
@@ -9170,16 +9170,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>297.250156971954</v>
+        <v>307.0723817743144</v>
       </c>
       <c r="N17" t="n">
-        <v>299.1339946568377</v>
+        <v>306.1392121436326</v>
       </c>
       <c r="O17" t="n">
-        <v>299.8191424819335</v>
+        <v>303.7243135627873</v>
       </c>
       <c r="P17" t="n">
-        <v>300.9539268155163</v>
+        <v>307.9591443023112</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>207.5623700346057</v>
+        <v>214.5675875214006</v>
       </c>
       <c r="L18" t="n">
-        <v>205.4583035245554</v>
+        <v>215.2805283269158</v>
       </c>
       <c r="M18" t="n">
-        <v>211.8549649822651</v>
+        <v>218.8601824690599</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9258,10 +9258,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>137.5049959056032</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.7027051462683</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,7 +9492,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>292.5201795090609</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10680,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1645045973416</v>
+        <v>400.0545553006046</v>
       </c>
       <c r="M41" t="n">
-        <v>401.6395910446851</v>
+        <v>394.6343735578902</v>
       </c>
       <c r="N41" t="n">
-        <v>400.7064214140032</v>
+        <v>356.7301656556056</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>309.8477375972865</v>
+        <v>302.8425201104916</v>
       </c>
       <c r="M42" t="n">
-        <v>306.5064479892322</v>
+        <v>306.4221742526357</v>
       </c>
       <c r="N42" t="n">
-        <v>302.6350699007456</v>
+        <v>295.6298524139507</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>173.6226820770193</v>
       </c>
       <c r="P42" t="n">
-        <v>305.2677652317425</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.9735378267706</v>
+        <v>342.4488750646148</v>
       </c>
       <c r="C14" t="n">
-        <v>324.5125879342975</v>
+        <v>324.9879251721417</v>
       </c>
       <c r="D14" t="n">
-        <v>313.9227377839729</v>
+        <v>314.3980750218171</v>
       </c>
       <c r="E14" t="n">
-        <v>341.1700662355518</v>
+        <v>341.645403473396</v>
       </c>
       <c r="F14" t="n">
-        <v>366.1157419050014</v>
+        <v>366.5910791428456</v>
       </c>
       <c r="G14" t="n">
-        <v>374.542433678425</v>
+        <v>375.0177709162692</v>
       </c>
       <c r="H14" t="n">
-        <v>298.7144982790571</v>
+        <v>299.1898355169013</v>
       </c>
       <c r="I14" t="n">
-        <v>169.7155857336959</v>
+        <v>170.1909229715401</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.1088141044396</v>
+        <v>109.5841513422839</v>
       </c>
       <c r="S14" t="n">
-        <v>168.2597657495353</v>
+        <v>168.7351029873795</v>
       </c>
       <c r="T14" t="n">
-        <v>182.3355457274213</v>
+        <v>182.8108829652655</v>
       </c>
       <c r="U14" t="n">
-        <v>210.5853490711264</v>
+        <v>211.0606863089707</v>
       </c>
       <c r="V14" t="n">
-        <v>286.9919546334248</v>
+        <v>287.4672918712691</v>
       </c>
       <c r="W14" t="n">
-        <v>308.480664880703</v>
+        <v>308.9560021185472</v>
       </c>
       <c r="X14" t="n">
-        <v>328.970796841759</v>
+        <v>329.4461340796032</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.4776348193435</v>
+        <v>345.9529720571878</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.7728798131573</v>
+        <v>126.2482170510015</v>
       </c>
       <c r="C15" t="n">
-        <v>131.9481951516057</v>
+        <v>132.4235323894499</v>
       </c>
       <c r="D15" t="n">
-        <v>106.6847617279287</v>
+        <v>107.1600989657729</v>
       </c>
       <c r="E15" t="n">
-        <v>116.8847766186909</v>
+        <v>117.3601138565351</v>
       </c>
       <c r="F15" t="n">
-        <v>104.3089085566738</v>
+        <v>104.7842457945181</v>
       </c>
       <c r="G15" t="n">
-        <v>96.58321332650058</v>
+        <v>97.05855056434481</v>
       </c>
       <c r="H15" t="n">
-        <v>71.47514039978641</v>
+        <v>71.95047763763064</v>
       </c>
       <c r="I15" t="n">
-        <v>48.63632901470503</v>
+        <v>49.11166625254926</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.39753031593308</v>
+        <v>59.87286755377731</v>
       </c>
       <c r="S15" t="n">
-        <v>130.9228672671278</v>
+        <v>131.398204504972</v>
       </c>
       <c r="T15" t="n">
-        <v>159.4044248581116</v>
+        <v>159.8797620959558</v>
       </c>
       <c r="U15" t="n">
-        <v>185.1810782442648</v>
+        <v>185.656415482109</v>
       </c>
       <c r="V15" t="n">
-        <v>192.0402833127152</v>
+        <v>192.5156205505594</v>
       </c>
       <c r="W15" t="n">
-        <v>210.9346793242096</v>
+        <v>211.4100165620538</v>
       </c>
       <c r="X15" t="n">
-        <v>165.0126813667674</v>
+        <v>165.4880186046117</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.9223919405943</v>
+        <v>165.3977291784385</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.0716763452272</v>
+        <v>139.5470135830715</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4865172619178</v>
+        <v>126.961854499762</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8551691815023</v>
+        <v>108.3305064193465</v>
       </c>
       <c r="E16" t="n">
-        <v>105.6736588098591</v>
+        <v>106.1489960477033</v>
       </c>
       <c r="F16" t="n">
-        <v>104.6607441862212</v>
+        <v>105.1360814240654</v>
       </c>
       <c r="G16" t="n">
-        <v>127.2306755217487</v>
+        <v>127.7060127595929</v>
       </c>
       <c r="H16" t="n">
-        <v>121.4668686707295</v>
+        <v>121.9422059085738</v>
       </c>
       <c r="I16" t="n">
-        <v>114.6901710905482</v>
+        <v>115.1655083283925</v>
       </c>
       <c r="J16" t="n">
-        <v>52.59887627996272</v>
+        <v>53.07421351780695</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.40173941498433</v>
+        <v>45.87707665282856</v>
       </c>
       <c r="R16" t="n">
-        <v>136.5330875404594</v>
+        <v>137.0084247783037</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2562942002622</v>
+        <v>183.7316314381064</v>
       </c>
       <c r="T16" t="n">
-        <v>187.1852855915714</v>
+        <v>187.6606228294157</v>
       </c>
       <c r="U16" t="n">
-        <v>245.5587255197808</v>
+        <v>246.0340627576251</v>
       </c>
       <c r="V16" t="n">
-        <v>211.377339487118</v>
+        <v>211.8526767249622</v>
       </c>
       <c r="W16" t="n">
-        <v>245.762694499881</v>
+        <v>246.2380317377252</v>
       </c>
       <c r="X16" t="n">
-        <v>184.9493515523271</v>
+        <v>185.4246887901713</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.8243495153847</v>
+        <v>178.299686753229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.9735378267706</v>
+        <v>342.4488750646148</v>
       </c>
       <c r="C17" t="n">
-        <v>254.7916568740507</v>
+        <v>324.9879251721417</v>
       </c>
       <c r="D17" t="n">
-        <v>252.5125417061076</v>
+        <v>314.3980750218171</v>
       </c>
       <c r="E17" t="n">
-        <v>271.449135175305</v>
+        <v>341.645403473396</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1157419050014</v>
+        <v>366.5910791428456</v>
       </c>
       <c r="G17" t="n">
-        <v>374.542433678425</v>
+        <v>375.0177709162692</v>
       </c>
       <c r="H17" t="n">
-        <v>228.9935672188104</v>
+        <v>299.1898355169013</v>
       </c>
       <c r="I17" t="n">
-        <v>169.7155857336959</v>
+        <v>170.1909229715401</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.1088141044396</v>
+        <v>32.85800279524224</v>
       </c>
       <c r="S17" t="n">
-        <v>168.2597657495353</v>
+        <v>92.0089544403379</v>
       </c>
       <c r="T17" t="n">
-        <v>182.3355457274213</v>
+        <v>106.0847344182239</v>
       </c>
       <c r="U17" t="n">
-        <v>210.5853490711264</v>
+        <v>211.0606863089707</v>
       </c>
       <c r="V17" t="n">
-        <v>286.9919546334248</v>
+        <v>287.4672918712691</v>
       </c>
       <c r="W17" t="n">
-        <v>308.480664880703</v>
+        <v>241.3756104783129</v>
       </c>
       <c r="X17" t="n">
-        <v>328.970796841759</v>
+        <v>329.4461340796032</v>
       </c>
       <c r="Y17" t="n">
-        <v>345.4776348193435</v>
+        <v>345.9529720571878</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.7728798131573</v>
+        <v>126.2482170510015</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9481951516057</v>
+        <v>132.4235323894499</v>
       </c>
       <c r="D18" t="n">
-        <v>106.6847617279287</v>
+        <v>107.1600989657729</v>
       </c>
       <c r="E18" t="n">
-        <v>116.8847766186909</v>
+        <v>40.6339653094935</v>
       </c>
       <c r="F18" t="n">
-        <v>104.3089085566738</v>
+        <v>28.05809724747644</v>
       </c>
       <c r="G18" t="n">
-        <v>96.58321332650058</v>
+        <v>97.05855056434481</v>
       </c>
       <c r="H18" t="n">
-        <v>71.47514039978641</v>
+        <v>71.95047763763064</v>
       </c>
       <c r="I18" t="n">
-        <v>48.63632901470503</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.39753031593308</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.20193620688102</v>
+        <v>96.0761981240227</v>
       </c>
       <c r="T18" t="n">
-        <v>89.6834937978648</v>
+        <v>159.8797620959558</v>
       </c>
       <c r="U18" t="n">
-        <v>185.1810782442648</v>
+        <v>185.656415482109</v>
       </c>
       <c r="V18" t="n">
-        <v>122.3193522524685</v>
+        <v>192.5156205505594</v>
       </c>
       <c r="W18" t="n">
-        <v>149.5244832463442</v>
+        <v>211.4100165620538</v>
       </c>
       <c r="X18" t="n">
-        <v>165.0126813667674</v>
+        <v>165.4880186046117</v>
       </c>
       <c r="Y18" t="n">
-        <v>164.9223919405943</v>
+        <v>165.3977291784385</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.0716763452272</v>
+        <v>139.5470135830715</v>
       </c>
       <c r="C19" t="n">
-        <v>126.4865172619178</v>
+        <v>126.961854499762</v>
       </c>
       <c r="D19" t="n">
-        <v>107.8551691815023</v>
+        <v>108.3305064193465</v>
       </c>
       <c r="E19" t="n">
-        <v>105.6736588098591</v>
+        <v>106.1489960477033</v>
       </c>
       <c r="F19" t="n">
-        <v>104.6607441862212</v>
+        <v>105.1360814240654</v>
       </c>
       <c r="G19" t="n">
-        <v>57.50974446150195</v>
+        <v>127.7060127595929</v>
       </c>
       <c r="H19" t="n">
-        <v>121.4668686707295</v>
+        <v>45.21605736153214</v>
       </c>
       <c r="I19" t="n">
-        <v>44.96924003030148</v>
+        <v>38.43935978135084</v>
       </c>
       <c r="J19" t="n">
-        <v>52.59887627996272</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.40173941498433</v>
+        <v>45.87707665282856</v>
       </c>
       <c r="R19" t="n">
-        <v>136.5330875404594</v>
+        <v>137.0084247783037</v>
       </c>
       <c r="S19" t="n">
-        <v>113.5353631400154</v>
+        <v>107.0054828910648</v>
       </c>
       <c r="T19" t="n">
-        <v>187.1852855915714</v>
+        <v>187.6606228294157</v>
       </c>
       <c r="U19" t="n">
-        <v>184.1485294419155</v>
+        <v>246.0340627576251</v>
       </c>
       <c r="V19" t="n">
-        <v>211.377339487118</v>
+        <v>197.3464986025349</v>
       </c>
       <c r="W19" t="n">
-        <v>245.762694499881</v>
+        <v>246.2380317377252</v>
       </c>
       <c r="X19" t="n">
-        <v>184.9493515523271</v>
+        <v>185.4246887901713</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.8243495153847</v>
+        <v>178.299686753229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127.6807626421974</v>
+        <v>340.4414855234836</v>
       </c>
       <c r="C20" t="n">
-        <v>81.49090951550727</v>
+        <v>322.9805356310105</v>
       </c>
       <c r="D20" t="n">
-        <v>70.90105936518268</v>
+        <v>312.390685480686</v>
       </c>
       <c r="E20" t="n">
-        <v>98.1483878167615</v>
+        <v>98.62372505460576</v>
       </c>
       <c r="F20" t="n">
-        <v>364.1083523638702</v>
+        <v>123.5694007240554</v>
       </c>
       <c r="G20" t="n">
-        <v>372.5350441372938</v>
+        <v>131.996092497479</v>
       </c>
       <c r="H20" t="n">
-        <v>296.7071087379259</v>
+        <v>84.89706033232807</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7081961925647</v>
+        <v>168.1835334304089</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1014245633085</v>
+        <v>107.5767618011527</v>
       </c>
       <c r="S20" t="n">
-        <v>166.2523762084041</v>
+        <v>166.7277134462483</v>
       </c>
       <c r="T20" t="n">
-        <v>180.3281561862901</v>
+        <v>180.8034934241344</v>
       </c>
       <c r="U20" t="n">
-        <v>208.5779595299953</v>
+        <v>209.0532967678395</v>
       </c>
       <c r="V20" t="n">
-        <v>284.9845650922937</v>
+        <v>285.4599023301379</v>
       </c>
       <c r="W20" t="n">
-        <v>306.4732753395718</v>
+        <v>306.948612577416</v>
       </c>
       <c r="X20" t="n">
-        <v>326.9634073006278</v>
+        <v>327.4387445384721</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.4702452782124</v>
+        <v>343.9455825160566</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>124.2408275098703</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>130.4161428483187</v>
       </c>
       <c r="D21" t="n">
-        <v>104.6773721867975</v>
+        <v>52.59100869342083</v>
       </c>
       <c r="E21" t="n">
-        <v>114.8773870775597</v>
+        <v>115.3527243154039</v>
       </c>
       <c r="F21" t="n">
-        <v>102.3015190155427</v>
+        <v>102.7768562533869</v>
       </c>
       <c r="G21" t="n">
-        <v>94.57582378536941</v>
+        <v>95.05116102321364</v>
       </c>
       <c r="H21" t="n">
-        <v>69.46775085865524</v>
+        <v>69.94308809649947</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>47.10427671141808</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.39014077480191</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.9154777259966</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.3970353169804</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>183.1736887031336</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>89.88746085941705</v>
+        <v>209.4026270209226</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>163.3903396373074</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.0642868040961</v>
+        <v>137.5396240419403</v>
       </c>
       <c r="C22" t="n">
-        <v>124.4791277207866</v>
+        <v>51.71643999080182</v>
       </c>
       <c r="D22" t="n">
-        <v>105.8477796403711</v>
+        <v>106.3231168782154</v>
       </c>
       <c r="E22" t="n">
-        <v>103.6662692687279</v>
+        <v>104.1416065065722</v>
       </c>
       <c r="F22" t="n">
-        <v>102.65335464509</v>
+        <v>103.1286918829342</v>
       </c>
       <c r="G22" t="n">
-        <v>125.2232859806175</v>
+        <v>125.6986232184618</v>
       </c>
       <c r="H22" t="n">
-        <v>119.4594791295983</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.6827815494171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50.59148673883155</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.39434987385316</v>
+        <v>43.86968711169739</v>
       </c>
       <c r="R22" t="n">
-        <v>134.5256979993283</v>
+        <v>135.0010352371725</v>
       </c>
       <c r="S22" t="n">
-        <v>181.248904659131</v>
+        <v>181.7242418969753</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>185.6532332882845</v>
       </c>
       <c r="U22" t="n">
-        <v>68.53617976901455</v>
+        <v>244.0266732164939</v>
       </c>
       <c r="V22" t="n">
-        <v>209.3699499459868</v>
+        <v>209.845287183831</v>
       </c>
       <c r="W22" t="n">
-        <v>243.7553049587498</v>
+        <v>244.230642196594</v>
       </c>
       <c r="X22" t="n">
-        <v>182.9419620111959</v>
+        <v>183.4172992490402</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.8169599742536</v>
+        <v>176.2922972120978</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.95185940798029</v>
+        <v>99.42719664582455</v>
       </c>
       <c r="C23" t="n">
-        <v>322.5051983931663</v>
+        <v>322.9805356310105</v>
       </c>
       <c r="D23" t="n">
-        <v>311.9153482428417</v>
+        <v>234.8720211736727</v>
       </c>
       <c r="E23" t="n">
-        <v>339.1626766944206</v>
+        <v>339.6380139322648</v>
       </c>
       <c r="F23" t="n">
-        <v>123.0940634862112</v>
+        <v>364.5836896017145</v>
       </c>
       <c r="G23" t="n">
-        <v>372.5350441372938</v>
+        <v>373.0103813751381</v>
       </c>
       <c r="H23" t="n">
-        <v>296.7071087379259</v>
+        <v>297.1824459757702</v>
       </c>
       <c r="I23" t="n">
-        <v>62.52423511243117</v>
+        <v>168.1835334304089</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>107.5767618011527</v>
       </c>
       <c r="S23" t="n">
-        <v>166.2523762084041</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>180.3281561862901</v>
+        <v>180.8034934241344</v>
       </c>
       <c r="U23" t="n">
-        <v>208.5779595299953</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>284.9845650922937</v>
+        <v>44.44561345247882</v>
       </c>
       <c r="W23" t="n">
-        <v>306.4732753395718</v>
+        <v>306.948612577416</v>
       </c>
       <c r="X23" t="n">
-        <v>85.94911842296875</v>
+        <v>327.4387445384721</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.4702452782124</v>
+        <v>343.9455825160566</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.2408275098703</v>
       </c>
       <c r="C24" t="n">
-        <v>129.9408056104745</v>
+        <v>130.4161428483187</v>
       </c>
       <c r="D24" t="n">
-        <v>104.6773721867975</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>102.7768562533869</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>95.05116102321364</v>
       </c>
       <c r="H24" t="n">
-        <v>69.46775085865524</v>
+        <v>69.94308809649947</v>
       </c>
       <c r="I24" t="n">
-        <v>46.62893947357385</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.89943819096032</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>128.9154777259966</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>183.1736887031336</v>
+        <v>183.6490259409778</v>
       </c>
       <c r="V24" t="n">
-        <v>190.032893771584</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>208.9272897830784</v>
+        <v>209.4026270209226</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>163.4806290634805</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>31.30869435309191</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.0642868040961</v>
+        <v>137.5396240419403</v>
       </c>
       <c r="C25" t="n">
-        <v>124.4791277207866</v>
+        <v>124.9544649586308</v>
       </c>
       <c r="D25" t="n">
-        <v>105.8477796403711</v>
+        <v>106.3231168782154</v>
       </c>
       <c r="E25" t="n">
-        <v>103.6662692687279</v>
+        <v>104.1416065065722</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.1286918829342</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>125.6986232184618</v>
       </c>
       <c r="H25" t="n">
-        <v>119.4594791295983</v>
+        <v>119.9348163674426</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>113.1581187872613</v>
       </c>
       <c r="J25" t="n">
-        <v>50.59148673883155</v>
+        <v>51.06682397667578</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.39434987385316</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>134.5256979993283</v>
+        <v>135.0010352371725</v>
       </c>
       <c r="S25" t="n">
-        <v>181.248904659131</v>
+        <v>181.7242418969753</v>
       </c>
       <c r="T25" t="n">
-        <v>185.1778960504403</v>
+        <v>185.6532332882845</v>
       </c>
       <c r="U25" t="n">
-        <v>243.5513359786497</v>
+        <v>244.0266732164939</v>
       </c>
       <c r="V25" t="n">
-        <v>209.3699499459868</v>
+        <v>209.845287183831</v>
       </c>
       <c r="W25" t="n">
-        <v>243.7553049587498</v>
+        <v>3.216353318934949</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9419620111959</v>
+        <v>183.4172992490402</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.1833298893029</v>
+        <v>103.7784891022456</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.8113249009222</v>
+        <v>79.30982599584968</v>
       </c>
       <c r="C26" t="n">
-        <v>65.33608613079014</v>
+        <v>302.8631649810357</v>
       </c>
       <c r="D26" t="n">
-        <v>295.7605248581245</v>
+        <v>51.25902595305206</v>
       </c>
       <c r="E26" t="n">
-        <v>323.0078533097034</v>
+        <v>319.5206432822899</v>
       </c>
       <c r="F26" t="n">
-        <v>347.953528979153</v>
+        <v>344.4663189517396</v>
       </c>
       <c r="G26" t="n">
-        <v>356.3802207525766</v>
+        <v>288.6737878621552</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6223481559772</v>
+        <v>36.05078644813625</v>
       </c>
       <c r="I26" t="n">
-        <v>151.5533728078475</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>87.45939115117781</v>
       </c>
       <c r="S26" t="n">
-        <v>150.097552823687</v>
+        <v>146.6103427962735</v>
       </c>
       <c r="T26" t="n">
-        <v>164.173332801573</v>
+        <v>160.6861227741595</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>188.9359261178646</v>
       </c>
       <c r="V26" t="n">
-        <v>268.8297417075765</v>
+        <v>265.342531680163</v>
       </c>
       <c r="W26" t="n">
-        <v>49.30416307719554</v>
+        <v>286.8312419274412</v>
       </c>
       <c r="X26" t="n">
-        <v>310.8085839159106</v>
+        <v>307.3213738884972</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.3154218934952</v>
+        <v>323.8282118660817</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>74.17437788548344</v>
+        <v>104.1234568598955</v>
       </c>
       <c r="C27" t="n">
-        <v>113.7859822257574</v>
+        <v>110.2987721983439</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>85.03533877466688</v>
       </c>
       <c r="E27" t="n">
-        <v>98.72256369284256</v>
+        <v>62.62852267906617</v>
       </c>
       <c r="F27" t="n">
-        <v>86.14669563082549</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>78.42100040065225</v>
+        <v>74.93379037323876</v>
       </c>
       <c r="H27" t="n">
-        <v>53.31292747393807</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.98690606144321</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.74810736267126</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>192.7724663983612</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>146.8504684409191</v>
+        <v>143.3632584135056</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>143.2729689873325</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.4222533919654</v>
       </c>
       <c r="C28" t="n">
-        <v>108.3243043360694</v>
+        <v>16.55030051088949</v>
       </c>
       <c r="D28" t="n">
-        <v>89.69295625565397</v>
+        <v>86.20574622824049</v>
       </c>
       <c r="E28" t="n">
-        <v>87.51144588401078</v>
+        <v>84.0242358565973</v>
       </c>
       <c r="F28" t="n">
-        <v>86.49853126037286</v>
+        <v>83.01132123295938</v>
       </c>
       <c r="G28" t="n">
-        <v>109.0684625959004</v>
+        <v>105.5812525684869</v>
       </c>
       <c r="H28" t="n">
-        <v>103.3046557448812</v>
+        <v>99.81744571746771</v>
       </c>
       <c r="I28" t="n">
-        <v>96.5279581646999</v>
+        <v>93.04074813728641</v>
       </c>
       <c r="J28" t="n">
-        <v>34.43666335411439</v>
+        <v>30.9494533267009</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.239526489136</v>
+        <v>23.75231646172251</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>114.8836645871976</v>
       </c>
       <c r="S28" t="n">
-        <v>165.0940812744139</v>
+        <v>161.6068712470004</v>
       </c>
       <c r="T28" t="n">
-        <v>169.0230726657231</v>
+        <v>165.5358626383096</v>
       </c>
       <c r="U28" t="n">
-        <v>227.3965125939325</v>
+        <v>223.909302566519</v>
       </c>
       <c r="V28" t="n">
-        <v>193.2151265612696</v>
+        <v>189.7279165338561</v>
       </c>
       <c r="W28" t="n">
-        <v>11.68771295177953</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>166.7871386264788</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.6621365895364</v>
+        <v>156.1749265621229</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24680,10 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>10.01576911572084</v>
+        <v>189.6753011662754</v>
       </c>
       <c r="D29" t="n">
-        <v>160.0141621559136</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
         <v>26.67324741697507</v>
@@ -24695,10 +24695,10 @@
         <v>301.0599037375074</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24734,16 @@
         <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
         <v>271.9951048784259</v>
@@ -24838,19 +24838,19 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F31" t="n">
         <v>31.17821424530361</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>14.28189759485886</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>43.28819333232197</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C32" t="n">
         <v>251.0300579933799</v>
@@ -24923,16 +24923,16 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>33.60367617379882</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12.94658269469738</v>
       </c>
       <c r="I32" t="n">
         <v>96.23305579277827</v>
@@ -24977,7 +24977,7 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
         <v>255.4882669008414</v>
@@ -25075,13 +25075,13 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
         <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>30.89226587953357</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
         <v>31.17821424530361</v>
@@ -25093,7 +25093,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.31330947747105</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>155.7531405213318</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
         <v>269.6949258357653</v>
@@ -25166,13 +25166,13 @@
         <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>62.05300440097955</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>118.1419782943115</v>
       </c>
       <c r="X35" t="n">
         <v>257.4956564419726</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>26.09606403470493</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>26.09606403470491</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>98.96103069470047</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>65.8840397892309</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>253.0374475345111</v>
+        <v>175.8535061656667</v>
       </c>
       <c r="D38" t="n">
         <v>242.4475973841865</v>
@@ -25403,10 +25403,10 @@
         <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>62.05300440097955</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
         <v>98.24044533390945</v>
@@ -25445,19 +25445,19 @@
         <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>237.0055244809166</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>246.9521540337806</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0024944195571</v>
+        <v>32.98820554189808</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>26.09606403470491</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>26.09606403470506</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.492447043604</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.81895358116556</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.3746615468078</v>
+        <v>129.0490684814481</v>
       </c>
       <c r="C41" t="n">
-        <v>271.9137116543347</v>
+        <v>111.588118588975</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>100.9982684386505</v>
       </c>
       <c r="E41" t="n">
-        <v>288.571189955589</v>
+        <v>208.3012283073736</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>83.51788878788537</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W41" t="n">
-        <v>84.58843078332794</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X41" t="n">
-        <v>105.078562744384</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.5854007219685</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796598</v>
+        <v>41.74261500263037</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>48.16149469220147</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>26.13850353402514</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
-        <v>21.66649142240581</v>
+        <v>32.63425617445839</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>5.477188683803675</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348011.0050489848</v>
+        <v>347047.7816702172</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>395442.1861379546</v>
+        <v>399121.7322605094</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501303.381668295</v>
+        <v>500283.1348190458</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501303.381668295</v>
+        <v>500283.1348190458</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>535977.5168847676</v>
+        <v>543462.3397849774</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649129.8423487557</v>
+        <v>649129.8423487556</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649129.8423487557</v>
+        <v>649129.8423487556</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>569056.9364143802</v>
+        <v>556608.1073023907</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453348</v>
+        <v>737348.7048453349</v>
       </c>
       <c r="C2" t="n">
         <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453349</v>
+        <v>737348.704845335</v>
       </c>
       <c r="E2" t="n">
-        <v>199888.4373911406</v>
+        <v>199888.4373911405</v>
       </c>
       <c r="F2" t="n">
-        <v>283108.7127180702</v>
+        <v>282088.8291405519</v>
       </c>
       <c r="G2" t="n">
-        <v>318662.003506651</v>
+        <v>321214.3403593224</v>
       </c>
       <c r="H2" t="n">
-        <v>397894.9797462896</v>
+        <v>396814.7183764966</v>
       </c>
       <c r="I2" t="n">
-        <v>397894.9797462894</v>
+        <v>396814.7183764965</v>
       </c>
       <c r="J2" t="n">
-        <v>434608.7699754956</v>
+        <v>442533.8765757178</v>
       </c>
       <c r="K2" t="n">
-        <v>558747.6184631743</v>
+        <v>558747.6184631747</v>
       </c>
       <c r="L2" t="n">
-        <v>558747.6184631747</v>
+        <v>558747.6184631746</v>
       </c>
       <c r="M2" t="n">
-        <v>554417.1145844249</v>
+        <v>554417.1145844244</v>
       </c>
       <c r="N2" t="n">
-        <v>554417.1145844251</v>
+        <v>554417.1145844246</v>
       </c>
       <c r="O2" t="n">
-        <v>483007.0342649737</v>
+        <v>471169.5742470186</v>
       </c>
       <c r="P2" t="n">
         <v>193513.3299566035</v>
@@ -26375,22 +26375,22 @@
         <v>2177.15258808521</v>
       </c>
       <c r="F3" t="n">
-        <v>30431.09048128283</v>
+        <v>30050.82069100745</v>
       </c>
       <c r="G3" t="n">
-        <v>19109.46138964773</v>
+        <v>21029.4864245159</v>
       </c>
       <c r="H3" t="n">
-        <v>47822.40121226314</v>
+        <v>45932.3304873685</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15101.01129585895</v>
+        <v>18271.04910806511</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333822</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>86867.59030083434</v>
+        <v>84673.55573396674</v>
       </c>
       <c r="F4" t="n">
-        <v>139644.6938300906</v>
+        <v>136803.8637443782</v>
       </c>
       <c r="G4" t="n">
-        <v>155855.3625866423</v>
+        <v>154292.6216406614</v>
       </c>
       <c r="H4" t="n">
-        <v>191841.2344221777</v>
+        <v>187739.9206951977</v>
       </c>
       <c r="I4" t="n">
-        <v>191841.2344221777</v>
+        <v>187739.9206951977</v>
       </c>
       <c r="J4" t="n">
-        <v>215154.5050694568</v>
+        <v>216771.6034010687</v>
       </c>
       <c r="K4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="L4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.773637341</v>
       </c>
       <c r="M4" t="n">
-        <v>291247.8217982544</v>
+        <v>287832.4744486645</v>
       </c>
       <c r="N4" t="n">
-        <v>291247.8217982544</v>
+        <v>287832.4744486646</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121382</v>
+        <v>241762.2790016676</v>
       </c>
       <c r="P4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>228.7888011596694</v>
       </c>
       <c r="F5" t="n">
-        <v>3426.677983248378</v>
+        <v>3386.716857000051</v>
       </c>
       <c r="G5" t="n">
-        <v>7665.71059171138</v>
+        <v>8051.666688660182</v>
       </c>
       <c r="H5" t="n">
-        <v>18249.1059783434</v>
+        <v>18209.14485209508</v>
       </c>
       <c r="I5" t="n">
-        <v>18249.1059783434</v>
+        <v>18209.14485209508</v>
       </c>
       <c r="J5" t="n">
-        <v>19607.22582547319</v>
+        <v>19900.39208526782</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26506,7 +26506,7 @@
         <v>24089.19032527969</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852723</v>
+        <v>17504.20445928715</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276003.9311123636</v>
+        <v>278197.9656792314</v>
       </c>
       <c r="C6" t="n">
-        <v>276003.9311123634</v>
+        <v>278197.965679231</v>
       </c>
       <c r="D6" t="n">
-        <v>276003.9311123638</v>
+        <v>278197.9656792315</v>
       </c>
       <c r="E6" t="n">
-        <v>110614.9057010613</v>
+        <v>112808.9402679289</v>
       </c>
       <c r="F6" t="n">
-        <v>109606.2504234484</v>
+        <v>111847.4278481662</v>
       </c>
       <c r="G6" t="n">
-        <v>136031.4689386496</v>
+        <v>137840.565605485</v>
       </c>
       <c r="H6" t="n">
-        <v>139982.2381335053</v>
+        <v>144933.3223418353</v>
       </c>
       <c r="I6" t="n">
-        <v>187804.6393457683</v>
+        <v>190865.6528292037</v>
       </c>
       <c r="J6" t="n">
-        <v>184746.0277847067</v>
+        <v>187590.8319813162</v>
       </c>
       <c r="K6" t="n">
-        <v>165803.2038262922</v>
+        <v>172388.5889880887</v>
       </c>
       <c r="L6" t="n">
-        <v>240490.5479196308</v>
+        <v>243905.8952692205</v>
       </c>
       <c r="M6" t="n">
-        <v>239080.1024608908</v>
+        <v>242495.4498104802</v>
       </c>
       <c r="N6" t="n">
-        <v>239080.102460891</v>
+        <v>242495.4498104804</v>
       </c>
       <c r="O6" t="n">
-        <v>213013.0938843083</v>
+        <v>211903.0907860639</v>
       </c>
       <c r="P6" t="n">
-        <v>110688.7412411512</v>
+        <v>112882.7758080187</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G2" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H2" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I2" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J2" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,7 +26826,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>38.03886310160354</v>
+        <v>37.56352586375931</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>38.03886310160354</v>
+        <v>37.56352586375931</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="R16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="C19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="D19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="E19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="F19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="G19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="H19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="I19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="J19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="K19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="L19" t="n">
-        <v>40.76030383671005</v>
+        <v>2.313130278178257</v>
       </c>
       <c r="M19" t="n">
-        <v>30.13705409840617</v>
+        <v>37.14227158520103</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>32.59397616781303</v>
       </c>
       <c r="O19" t="n">
-        <v>12.74848136244955</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="P19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="R19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="S19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="T19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="U19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="V19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="W19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="X19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.76030383671005</v>
+        <v>40.28496659886582</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="K22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="L22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="M22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="N22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="O22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="P22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="R22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="K25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="L25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="M25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="N25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="O25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="P25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="R25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.76769337784123</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="C26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="D26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="E26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="F26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="G26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="H26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="I26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="S26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="T26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="U26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="V26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="W26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="X26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="C27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="D27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="E27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="F27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="G27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="H27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="I27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="S27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="T27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="U27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="V27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="W27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="X27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="Y27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="C28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="D28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="E28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="F28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="G28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="H28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="I28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="J28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="K28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="L28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="M28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="N28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="O28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="P28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="R28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="S28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="T28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="U28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="V28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="W28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="X28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997187</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35890,16 +35890,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>66.90392374468128</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N17" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O17" t="n">
-        <v>69.72093106024676</v>
+        <v>73.62610214110056</v>
       </c>
       <c r="P17" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="L18" t="n">
-        <v>66.90392374468128</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="M18" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3.530588491272993</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.72093106024676</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>18.4908120108272</v>
+        <v>18.01547477298297</v>
       </c>
       <c r="L19" t="n">
-        <v>68.35032909702619</v>
+        <v>29.9031555384944</v>
       </c>
       <c r="M19" t="n">
-        <v>69.72093106024676</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N19" t="n">
-        <v>44.13217237922859</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O19" t="n">
-        <v>37.33360927648922</v>
+        <v>64.8700945129055</v>
       </c>
       <c r="P19" t="n">
-        <v>38.03886310160354</v>
+        <v>37.56352586375931</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36203,7 +36203,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,7 +36212,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.49820155195837</v>
+        <v>20.02286431411414</v>
       </c>
       <c r="L22" t="n">
-        <v>70.35771863815737</v>
+        <v>69.88238140031314</v>
       </c>
       <c r="M22" t="n">
-        <v>82.35157033968181</v>
+        <v>81.87623310183758</v>
       </c>
       <c r="N22" t="n">
-        <v>86.89986575706982</v>
+        <v>86.42452851922559</v>
       </c>
       <c r="O22" t="n">
-        <v>67.3528212918809</v>
+        <v>66.87748405403667</v>
       </c>
       <c r="P22" t="n">
-        <v>40.04625264273471</v>
+        <v>39.57091540489048</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
         <v>150.7019698410586</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>20.49820155195837</v>
+        <v>20.02286431411414</v>
       </c>
       <c r="L25" t="n">
-        <v>70.35771863815737</v>
+        <v>69.88238140031314</v>
       </c>
       <c r="M25" t="n">
-        <v>82.35157033968181</v>
+        <v>81.87623310183758</v>
       </c>
       <c r="N25" t="n">
-        <v>86.89986575706982</v>
+        <v>86.42452851922559</v>
       </c>
       <c r="O25" t="n">
-        <v>67.3528212918809</v>
+        <v>66.87748405403667</v>
       </c>
       <c r="P25" t="n">
-        <v>40.04625264273471</v>
+        <v>39.57091540489048</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.65302493667554</v>
+        <v>40.14023496408902</v>
       </c>
       <c r="L28" t="n">
-        <v>86.51254202287453</v>
+        <v>89.99975205028801</v>
       </c>
       <c r="M28" t="n">
-        <v>98.50639372439898</v>
+        <v>101.9936037518125</v>
       </c>
       <c r="N28" t="n">
-        <v>103.054689141787</v>
+        <v>106.5418991692005</v>
       </c>
       <c r="O28" t="n">
-        <v>83.50764467659806</v>
+        <v>86.99485470401154</v>
       </c>
       <c r="P28" t="n">
-        <v>56.20107602745188</v>
+        <v>59.68828605486536</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37400,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>94.39808962735442</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N41" t="n">
-        <v>171.2933578174123</v>
+        <v>127.3171020590146</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M42" t="n">
-        <v>164.3724140672139</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>31.02643763257488</v>
       </c>
       <c r="P42" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078992</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.9492053769889</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307124</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156626</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.19713686497839</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698528.689718574</v>
+        <v>1643850.773099069</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2997551.501605988</v>
+        <v>3003638.261695862</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10933919.174302</v>
+        <v>10893593.65179476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6498986.758880559</v>
+        <v>6504342.987417501</v>
       </c>
     </row>
     <row r="11">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="C17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>97.90435205358158</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>95.94694477220426</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.04092972605831</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>83.93938132463019</v>
+        <v>82.47280889755152</v>
       </c>
       <c r="H18" t="n">
-        <v>58.83130839791602</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575595</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.0595150888727</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.00600899242801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.56325438091005</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.75790741311394</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="U19" t="n">
-        <v>63.18903735909035</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>6.341097672671531</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>97.90435205358158</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>96.46498210256924</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>108.4135530104664</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>92.57435729897963</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>102.7743721897418</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>90.19850412772476</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>82.47280889755152</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>18.05887320839555</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.28712588698401</v>
       </c>
       <c r="S21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>95.9469447722042</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>93.74476475255324</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>91.56325438091005</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>23.75022943871688</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.75790741311394</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>63.18903735909026</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>113.9133958990539</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>139.5045359838199</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>56.6029477643358</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
         <v>162.2983503095045</v>
@@ -2465,7 +2465,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.8595338725734</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="25">
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.2076304671862</v>
       </c>
       <c r="W25" t="n">
-        <v>140.19071216926</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
         <v>136.3130225376221</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>34.84812707781634</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>199.9770210735545</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,22 +2636,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>27.59430171396007</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>16.39581835414817</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
         <v>116.2860629258893</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.58133820180622</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>154.9960036648941</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>151.8129005537074</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>83.31186613690066</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.44059375487215</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>66.33882118108602</v>
       </c>
       <c r="T30" t="n">
         <v>110.7680958434065</v>
@@ -2939,7 +2939,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>79.58133820180622</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>129.3754813767034</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>96.35142947471007</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>108.8622354336022</v>
       </c>
       <c r="T32" t="n">
-        <v>53.71186642133326</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>72.55066483567261</v>
       </c>
       <c r="D33" t="n">
-        <v>3.766543841263326</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>34.01067229454678</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>125.7835479283317</v>
       </c>
       <c r="V33" t="n">
-        <v>132.6427529967821</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>151.5371490082765</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.5392030481328</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>75.02846795354645</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>123.8587638843291</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>186.1611952038477</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.38628309974211</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>48.90029112039401</v>
       </c>
       <c r="D36" t="n">
         <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
         <v>44.91137824074075</v>
@@ -3362,7 +3362,7 @@
         <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3410,7 +3410,7 @@
         <v>151.5371490082765</v>
       </c>
       <c r="X36" t="n">
-        <v>52.54806706446642</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
         <v>105.5248616246612</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>51.1390688235235</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>59.74174685881256</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>104.01525235787</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>144.8439800035187</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>85.70378080134118</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3881600193582</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>157.4639399972442</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>185.7137433409493</v>
       </c>
       <c r="V38" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>215.3939976830282</v>
+        <v>62.90414003768985</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>100.9012740829802</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>107.0765894214286</v>
       </c>
       <c r="D39" t="n">
-        <v>53.49064399279218</v>
+        <v>81.81315599775158</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>48.07010709668796</v>
+        <v>46.60353466960929</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.7647232845279</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>107.5178339640293</v>
+        <v>106.0512615369506</v>
       </c>
       <c r="T39" t="n">
-        <v>135.9993915550131</v>
+        <v>134.5328191279344</v>
       </c>
       <c r="U39" t="n">
-        <v>161.7760449411663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>167.1686775825381</v>
       </c>
       <c r="W39" t="n">
-        <v>187.5296460211111</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>140.1410756365903</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.5173586374959</v>
+        <v>27.27514093610828</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>96.5952629405524</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.99670611188589</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>113.128054237361</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>159.8512608971637</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>163.780252288473</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>51.46961946173579</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>186.5057337569408</v>
       </c>
       <c r="W40" t="n">
-        <v>27.26776263181654</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>160.07774582215</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>116.3384408712378</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>94.22790758880731</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>20.15312600105313</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>89.42800204104151</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>56.59423388415409</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.5085331785741</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>130.9126062294913</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="W42" t="n">
-        <v>132.0826985368276</v>
+        <v>98.21919002372537</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.98740532643069</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>123.1187534519058</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>8.001174513656238</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.31587910314546</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>20.15312600105313</v>
       </c>
       <c r="G44" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>94.22790758880731</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>116.3384408712378</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.3585457246036</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.27042763937506</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>89.42800204104151</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.70230681086827</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>56.59423388415409</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>33.75542249907271</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.51662380030076</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>116.0419607514955</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>81.92366088010911</v>
       </c>
       <c r="U45" t="n">
-        <v>42.79216604408673</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.8163414331951</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>108.0525345821759</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16.80612067304844</v>
       </c>
       <c r="J46" t="n">
-        <v>39.18454219140908</v>
+        <v>37.71796976433041</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.6521810248271</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="U46" t="n">
-        <v>34.13661362204038</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.7464366624498</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="C17" t="n">
-        <v>8.714527227266514</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="D17" t="n">
-        <v>8.714527227266514</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="E17" t="n">
-        <v>8.714527227266514</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="F17" t="n">
-        <v>8.714527227266514</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="G17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="H17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="I17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="J17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K17" t="n">
-        <v>111.7295331381889</v>
+        <v>111.9073176324102</v>
       </c>
       <c r="L17" t="n">
-        <v>112.1995380510564</v>
+        <v>221.9496751858228</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0418124884795</v>
+        <v>331.9920327392354</v>
       </c>
       <c r="N17" t="n">
-        <v>327.8840869259026</v>
+        <v>442.034390292648</v>
       </c>
       <c r="O17" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="P17" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q17" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R17" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="S17" t="n">
-        <v>325.6944519281424</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="T17" t="n">
-        <v>325.6944519281424</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="U17" t="n">
-        <v>325.6944519281424</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="V17" t="n">
-        <v>228.7783460976331</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="W17" t="n">
-        <v>228.7783460976331</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="X17" t="n">
-        <v>228.7783460976331</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="Y17" t="n">
-        <v>228.7783460976331</v>
+        <v>332.3389229242947</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>284.2742408246798</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="C18" t="n">
-        <v>284.2742408246798</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="D18" t="n">
-        <v>189.2834027175502</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="E18" t="n">
-        <v>189.2834027175502</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="F18" t="n">
-        <v>189.2834027175502</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="G18" t="n">
-        <v>104.4961488542874</v>
+        <v>43.76698302023127</v>
       </c>
       <c r="H18" t="n">
-        <v>45.07058481598837</v>
+        <v>43.76698302023127</v>
       </c>
       <c r="I18" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="J18" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K18" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="L18" t="n">
-        <v>116.5568016646896</v>
+        <v>114.4885134141566</v>
       </c>
       <c r="M18" t="n">
-        <v>224.3990761021127</v>
+        <v>224.5308709675691</v>
       </c>
       <c r="N18" t="n">
-        <v>327.8840869259026</v>
+        <v>334.5732285209817</v>
       </c>
       <c r="O18" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="P18" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q18" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R18" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="S18" t="n">
-        <v>435.7263613633257</v>
+        <v>351.6261768937148</v>
       </c>
       <c r="T18" t="n">
-        <v>435.7263613633257</v>
+        <v>351.6261768937148</v>
       </c>
       <c r="U18" t="n">
-        <v>435.7263613633257</v>
+        <v>351.6261768937148</v>
       </c>
       <c r="V18" t="n">
-        <v>325.6944519281424</v>
+        <v>351.6261768937148</v>
       </c>
       <c r="W18" t="n">
-        <v>325.6944519281424</v>
+        <v>239.3495137436152</v>
       </c>
       <c r="X18" t="n">
-        <v>325.6944519281424</v>
+        <v>127.0728505935156</v>
       </c>
       <c r="Y18" t="n">
-        <v>284.2742408246798</v>
+        <v>127.0728505935156</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.714527227266514</v>
+        <v>101.3804474597809</v>
       </c>
       <c r="C19" t="n">
-        <v>8.714527227266514</v>
+        <v>101.3804474597809</v>
       </c>
       <c r="D19" t="n">
-        <v>8.714527227266514</v>
+        <v>101.3804474597809</v>
       </c>
       <c r="E19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="F19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="G19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="H19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="I19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="J19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K19" t="n">
-        <v>39.53782479983715</v>
+        <v>41.1675159968664</v>
       </c>
       <c r="L19" t="n">
-        <v>119.7220442877448</v>
+        <v>122.8036421875819</v>
       </c>
       <c r="M19" t="n">
-        <v>211.7801769601616</v>
+        <v>216.3136815628066</v>
       </c>
       <c r="N19" t="n">
-        <v>308.3411220957926</v>
+        <v>314.3265334012454</v>
       </c>
       <c r="O19" t="n">
-        <v>385.5504932108865</v>
+        <v>392.9878112191472</v>
       </c>
       <c r="P19" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q19" t="n">
-        <v>402.6375659965439</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R19" t="n">
-        <v>292.6056565613607</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="S19" t="n">
-        <v>182.5737471261774</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="T19" t="n">
-        <v>72.54183769099414</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="U19" t="n">
-        <v>8.714527227266514</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="V19" t="n">
-        <v>8.714527227266514</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="W19" t="n">
-        <v>8.714527227266514</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="X19" t="n">
-        <v>8.714527227266514</v>
+        <v>213.6571106098804</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.714527227266514</v>
+        <v>213.6571106098804</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.714527227266512</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="C20" t="n">
-        <v>8.714527227266512</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="D20" t="n">
-        <v>8.714527227266512</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="E20" t="n">
-        <v>8.714527227266512</v>
+        <v>345.7223011717866</v>
       </c>
       <c r="F20" t="n">
-        <v>8.714527227266512</v>
+        <v>233.445638021687</v>
       </c>
       <c r="G20" t="n">
-        <v>8.714527227266512</v>
+        <v>121.1689748715875</v>
       </c>
       <c r="H20" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="I20" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="J20" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K20" t="n">
-        <v>111.7295331381889</v>
+        <v>111.9073176324102</v>
       </c>
       <c r="L20" t="n">
-        <v>130.3817571964285</v>
+        <v>221.9496751858228</v>
       </c>
       <c r="M20" t="n">
-        <v>238.2240316338515</v>
+        <v>244.9131732289307</v>
       </c>
       <c r="N20" t="n">
-        <v>346.0663060712746</v>
+        <v>244.9131732289307</v>
       </c>
       <c r="O20" t="n">
-        <v>346.0663060712746</v>
+        <v>354.9555307823433</v>
       </c>
       <c r="P20" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q20" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R20" t="n">
-        <v>338.2869855021445</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="S20" t="n">
-        <v>338.2869855021445</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="T20" t="n">
-        <v>338.2869855021445</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="U20" t="n">
-        <v>228.2550760669612</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="V20" t="n">
-        <v>228.2550760669612</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="W20" t="n">
-        <v>118.7464366624498</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="X20" t="n">
-        <v>118.7464366624498</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.714527227266512</v>
+        <v>444.6155860743943</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.714527227266512</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="C21" t="n">
-        <v>8.714527227266512</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="D21" t="n">
-        <v>8.714527227266512</v>
+        <v>305.361562654229</v>
       </c>
       <c r="E21" t="n">
-        <v>8.714527227266512</v>
+        <v>201.5490654928736</v>
       </c>
       <c r="F21" t="n">
-        <v>8.714527227266512</v>
+        <v>110.4394653638587</v>
       </c>
       <c r="G21" t="n">
-        <v>8.714527227266512</v>
+        <v>27.1335977905743</v>
       </c>
       <c r="H21" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="I21" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="J21" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K21" t="n">
-        <v>116.5568016646896</v>
+        <v>118.9346692749005</v>
       </c>
       <c r="L21" t="n">
-        <v>224.3990761021126</v>
+        <v>228.9770268283131</v>
       </c>
       <c r="M21" t="n">
-        <v>224.3990761021126</v>
+        <v>339.0193843817257</v>
       </c>
       <c r="N21" t="n">
-        <v>224.3990761021126</v>
+        <v>339.0193843817257</v>
       </c>
       <c r="O21" t="n">
-        <v>332.2413505395357</v>
+        <v>339.0193843817257</v>
       </c>
       <c r="P21" t="n">
-        <v>366.3318028499963</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q21" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R21" t="n">
-        <v>435.7263613633256</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="S21" t="n">
-        <v>325.6944519281423</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="T21" t="n">
-        <v>325.6944519281423</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="U21" t="n">
-        <v>215.6625424929591</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="V21" t="n">
-        <v>118.7464366624498</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="W21" t="n">
-        <v>8.714527227266512</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="X21" t="n">
-        <v>8.714527227266512</v>
+        <v>398.8710144713801</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.714527227266512</v>
+        <v>398.8710144713801</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.714527227266512</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="C22" t="n">
-        <v>8.714527227266512</v>
+        <v>220.0622597741951</v>
       </c>
       <c r="D22" t="n">
-        <v>8.714527227266512</v>
+        <v>125.3705782059595</v>
       </c>
       <c r="E22" t="n">
-        <v>8.714527227266512</v>
+        <v>32.88244246766655</v>
       </c>
       <c r="F22" t="n">
-        <v>8.714527227266512</v>
+        <v>32.88244246766655</v>
       </c>
       <c r="G22" t="n">
-        <v>8.714527227266512</v>
+        <v>32.88244246766655</v>
       </c>
       <c r="H22" t="n">
-        <v>8.714527227266512</v>
+        <v>32.88244246766655</v>
       </c>
       <c r="I22" t="n">
-        <v>8.714527227266512</v>
+        <v>32.88244246766655</v>
       </c>
       <c r="J22" t="n">
-        <v>8.714527227266512</v>
+        <v>8.892311721487886</v>
       </c>
       <c r="K22" t="n">
-        <v>39.53782479983713</v>
+        <v>41.1675159968664</v>
       </c>
       <c r="L22" t="n">
-        <v>119.7220442877447</v>
+        <v>122.8036421875819</v>
       </c>
       <c r="M22" t="n">
-        <v>211.7801769601615</v>
+        <v>216.3136815628066</v>
       </c>
       <c r="N22" t="n">
-        <v>308.3411220957925</v>
+        <v>314.3265334012454</v>
       </c>
       <c r="O22" t="n">
-        <v>385.5504932108864</v>
+        <v>392.9878112191472</v>
       </c>
       <c r="P22" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="Q22" t="n">
-        <v>402.6375659965438</v>
+        <v>444.6155860743943</v>
       </c>
       <c r="R22" t="n">
-        <v>292.6056565613605</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="S22" t="n">
-        <v>182.5737471261773</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="T22" t="n">
-        <v>182.5737471261773</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="U22" t="n">
-        <v>72.54183769099406</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="V22" t="n">
-        <v>72.54183769099406</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="W22" t="n">
-        <v>72.54183769099406</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="X22" t="n">
-        <v>8.714527227266512</v>
+        <v>332.3389229242947</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.714527227266512</v>
+        <v>332.3389229242947</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>134.3451793718834</v>
+        <v>160.1948158211419</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>160.1948158211419</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>160.1948158211419</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>160.1948158211419</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>160.1948158211419</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>782.1420829605706</v>
       </c>
       <c r="T23" t="n">
-        <v>782.1420829605706</v>
+        <v>647.092369109342</v>
       </c>
       <c r="U23" t="n">
-        <v>618.5572142167106</v>
+        <v>647.092369109342</v>
       </c>
       <c r="V23" t="n">
-        <v>377.7939560159834</v>
+        <v>647.092369109342</v>
       </c>
       <c r="W23" t="n">
-        <v>377.7939560159834</v>
+        <v>403.643592465242</v>
       </c>
       <c r="X23" t="n">
-        <v>377.7939560159834</v>
+        <v>403.643592465242</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.7939560159834</v>
+        <v>160.1948158211419</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.8537494912325</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>146.8537494912325</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>88.21896897282471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,10 +6071,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
         <v>234.810827406191</v>
@@ -6104,16 +6104,16 @@
         <v>620.25858518072</v>
       </c>
       <c r="V24" t="n">
-        <v>620.25858518072</v>
+        <v>475.4061060918208</v>
       </c>
       <c r="W24" t="n">
-        <v>456.3208575953619</v>
+        <v>311.4683785064627</v>
       </c>
       <c r="X24" t="n">
-        <v>338.7689865326726</v>
+        <v>193.9165074437734</v>
       </c>
       <c r="Y24" t="n">
-        <v>224.769457368457</v>
+        <v>76.45583782166302</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>438.5262858210698</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T25" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U25" t="n">
-        <v>298.577844834336</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="V25" t="n">
-        <v>298.577844834336</v>
+        <v>356.0886057595037</v>
       </c>
       <c r="W25" t="n">
         <v>156.9710648653866</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S26" t="n">
-        <v>843.2254012330299</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T26" t="n">
-        <v>708.1756873818013</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="U26" t="n">
-        <v>708.1756873818013</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>541.3788247598435</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>541.3788247598435</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.0920010071278</v>
+        <v>358.7427811839057</v>
       </c>
       <c r="C27" t="n">
-        <v>116.0920010071278</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="D27" t="n">
-        <v>88.21896897282471</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="U27" t="n">
-        <v>620.25858518072</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="V27" t="n">
-        <v>475.4061060918208</v>
+        <v>835.6087573312881</v>
       </c>
       <c r="W27" t="n">
-        <v>311.4683785064627</v>
+        <v>671.6710297459299</v>
       </c>
       <c r="X27" t="n">
-        <v>311.4683785064627</v>
+        <v>554.1191586832406</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.0077088843523</v>
+        <v>436.6584890611302</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>75.87146146527957</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>75.87146146527957</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>75.87146146527957</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>75.87146146527957</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S28" t="n">
-        <v>438.5262858210698</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="T28" t="n">
-        <v>298.577844834336</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="U28" t="n">
-        <v>99.6663332130473</v>
+        <v>370.7492705290096</v>
       </c>
       <c r="V28" t="n">
-        <v>99.6663332130473</v>
+        <v>206.3644114659662</v>
       </c>
       <c r="W28" t="n">
-        <v>99.6663332130473</v>
+        <v>206.3644114659662</v>
       </c>
       <c r="X28" t="n">
-        <v>99.6663332130473</v>
+        <v>206.3644114659662</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.6663332130473</v>
+        <v>75.87146146527957</v>
       </c>
     </row>
     <row r="29">
@@ -6448,10 +6448,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>659.5250605940769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>659.5250605940769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.0007995665489</v>
+        <v>103.4345432484962</v>
       </c>
       <c r="C30" t="n">
-        <v>31.8473994282654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>31.8473994282654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>897.0482452267109</v>
       </c>
       <c r="T30" t="n">
-        <v>758.1825743014874</v>
+        <v>785.1612797283206</v>
       </c>
       <c r="U30" t="n">
-        <v>620.25858518072</v>
+        <v>647.2372906075532</v>
       </c>
       <c r="V30" t="n">
-        <v>475.4061060918208</v>
+        <v>502.384811518654</v>
       </c>
       <c r="W30" t="n">
-        <v>311.4683785064627</v>
+        <v>338.4470839332959</v>
       </c>
       <c r="X30" t="n">
-        <v>193.9165074437734</v>
+        <v>220.8952128706066</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.9165074437734</v>
+        <v>103.4345432484962</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>438.5262858210698</v>
       </c>
       <c r="T31" t="n">
-        <v>298.577844834336</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="U31" t="n">
-        <v>99.6663332130473</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="V31" t="n">
-        <v>99.6663332130473</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>307.8439814001573</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>177.3510313994707</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>228.038198557155</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>130.7135223200741</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>913.8437375424478</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>803.8818835691122</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>701.3803330977114</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>471.4869752012551</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>471.4869752012551</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.36923268287529</v>
+        <v>230.3518114675036</v>
       </c>
       <c r="C33" t="n">
-        <v>23.08573284886255</v>
+        <v>157.0683116334909</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>157.0683116334909</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>99.00038607514962</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>53.63535754914886</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6815,16 +6815,16 @@
         <v>663.7381863978029</v>
       </c>
       <c r="V33" t="n">
-        <v>529.7556076131746</v>
+        <v>663.7381863978029</v>
       </c>
       <c r="W33" t="n">
-        <v>376.6877803320872</v>
+        <v>510.6703591167155</v>
       </c>
       <c r="X33" t="n">
-        <v>270.0058095736687</v>
+        <v>403.988388358297</v>
       </c>
       <c r="Y33" t="n">
-        <v>163.415040255829</v>
+        <v>297.3976190404574</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>158.3069634377244</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>158.3069634377244</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>158.3069634377244</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>158.3069634377244</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>112.5865453869283</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>44.06821689620546</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R34" t="n">
-        <v>668.8101144531455</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S34" t="n">
-        <v>543.7002519437222</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="T34" t="n">
-        <v>414.6217112612591</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="U34" t="n">
-        <v>226.5800999442412</v>
+        <v>431.4449718929128</v>
       </c>
       <c r="V34" t="n">
-        <v>226.5800999442412</v>
+        <v>277.9300131341402</v>
       </c>
       <c r="W34" t="n">
-        <v>226.5800999442412</v>
+        <v>277.9300131341402</v>
       </c>
       <c r="X34" t="n">
-        <v>99.76007849333814</v>
+        <v>277.9300131341402</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.76007849333814</v>
+        <v>158.3069634377244</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
         <v>262.7299197543128</v>
@@ -6961,16 +6961,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>913.8437375424478</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>902.3424414821022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>902.3424414821022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
         <v>749.627473042513</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>149.9723478206207</v>
+        <v>269.6341129792117</v>
       </c>
       <c r="C36" t="n">
-        <v>149.9723478206207</v>
+        <v>220.2398795242683</v>
       </c>
       <c r="D36" t="n">
-        <v>102.2074676064837</v>
+        <v>172.4749993101313</v>
       </c>
       <c r="E36" t="n">
-        <v>102.2074676064837</v>
+        <v>114.4070737517901</v>
       </c>
       <c r="F36" t="n">
-        <v>56.84243908048293</v>
+        <v>69.04204522578932</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.7922752142996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>663.7381863978029</v>
+        <v>837.0030666941395</v>
       </c>
       <c r="V36" t="n">
-        <v>529.7556076131746</v>
+        <v>703.0204879095111</v>
       </c>
       <c r="W36" t="n">
-        <v>376.6877803320872</v>
+        <v>549.9526606284237</v>
       </c>
       <c r="X36" t="n">
-        <v>323.608924711414</v>
+        <v>443.2706898700052</v>
       </c>
       <c r="Y36" t="n">
-        <v>217.0181553935744</v>
+        <v>336.6799205521655</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>415.5246708990969</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>347.7580174183042</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>298.8109074530828</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>252.067343317804</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>206.3469252670079</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>137.8285967762851</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>541.5718789427324</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="T37" t="n">
-        <v>412.4933382602694</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="U37" t="n">
-        <v>224.4517269432515</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="V37" t="n">
-        <v>70.93676818447889</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>556.3488051295077</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>556.3488051295077</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>496.0036062822223</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.2974312872382</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="C38" t="n">
-        <v>122.2974312872382</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="D38" t="n">
-        <v>122.2974312872382</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="E38" t="n">
-        <v>122.2974312872382</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L38" t="n">
-        <v>203.6264053839766</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>775.0065151752026</v>
+        <v>819.2206302385573</v>
       </c>
       <c r="T38" t="n">
-        <v>775.0065151752026</v>
+        <v>660.1661453928562</v>
       </c>
       <c r="U38" t="n">
-        <v>775.0065151752026</v>
+        <v>472.5765056545235</v>
       </c>
       <c r="V38" t="n">
-        <v>557.4368205458811</v>
+        <v>229.1277290104234</v>
       </c>
       <c r="W38" t="n">
-        <v>339.8671259165596</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="X38" t="n">
-        <v>339.8671259165596</v>
+        <v>165.5881936188175</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.2974312872382</v>
+        <v>165.5881936188175</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>119.8181370767434</v>
+        <v>281.1579141943716</v>
       </c>
       <c r="C39" t="n">
-        <v>119.8181370767434</v>
+        <v>172.9997430616155</v>
       </c>
       <c r="D39" t="n">
-        <v>65.78718354867051</v>
+        <v>90.36019154873514</v>
       </c>
       <c r="E39" t="n">
-        <v>65.78718354867051</v>
+        <v>90.36019154873514</v>
       </c>
       <c r="F39" t="n">
-        <v>65.78718354867051</v>
+        <v>90.36019154873514</v>
       </c>
       <c r="G39" t="n">
-        <v>65.78718354867051</v>
+        <v>90.36019154873514</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23151981464226</v>
+        <v>43.28591410468536</v>
       </c>
       <c r="I39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>17.23151981464226</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4715775208402</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>230.4715775208402</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>752.9721180411742</v>
+        <v>856.934669109676</v>
       </c>
       <c r="T39" t="n">
-        <v>615.5989952583327</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="U39" t="n">
-        <v>452.1888488531142</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="V39" t="n">
-        <v>452.1888488531142</v>
+        <v>552.1856825334411</v>
       </c>
       <c r="W39" t="n">
-        <v>262.7649639833049</v>
+        <v>552.1856825334411</v>
       </c>
       <c r="X39" t="n">
-        <v>262.7649639833049</v>
+        <v>410.6290404762792</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.8181370767434</v>
+        <v>383.0783930660688</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>58.70840667542865</v>
+        <v>62.209936673807</v>
       </c>
       <c r="L40" t="n">
-        <v>149.546215451552</v>
+        <v>154.4996521527383</v>
       </c>
       <c r="M40" t="n">
-        <v>252.2579374121846</v>
+        <v>258.6632808161788</v>
       </c>
       <c r="N40" t="n">
-        <v>359.4724718360313</v>
+        <v>367.3297219428334</v>
       </c>
       <c r="O40" t="n">
-        <v>447.335432239341</v>
+        <v>456.6445890489509</v>
       </c>
       <c r="P40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924138</v>
       </c>
       <c r="Q40" t="n">
-        <v>485.945994617485</v>
+        <v>518.9259531924138</v>
       </c>
       <c r="R40" t="n">
-        <v>371.6752327615648</v>
+        <v>518.9259531924138</v>
       </c>
       <c r="S40" t="n">
-        <v>210.2093126634196</v>
+        <v>518.9259531924138</v>
       </c>
       <c r="T40" t="n">
-        <v>44.77471439223473</v>
+        <v>518.9259531924138</v>
       </c>
       <c r="U40" t="n">
-        <v>44.77471439223473</v>
+        <v>466.9364385845998</v>
       </c>
       <c r="V40" t="n">
-        <v>44.77471439223473</v>
+        <v>278.5468085270838</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>278.5468085270838</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>116.8521157774374</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>261.497059729477</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="C41" t="n">
-        <v>261.497059729477</v>
+        <v>141.5609448827253</v>
       </c>
       <c r="D41" t="n">
-        <v>261.497059729477</v>
+        <v>141.5609448827253</v>
       </c>
       <c r="E41" t="n">
-        <v>261.497059729477</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="F41" t="n">
-        <v>261.497059729477</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="G41" t="n">
-        <v>128.0801925205602</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="H41" t="n">
-        <v>128.0801925205602</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K41" t="n">
-        <v>113.5816217938686</v>
+        <v>113.4038372996472</v>
       </c>
       <c r="L41" t="n">
-        <v>136.0451794929325</v>
+        <v>241.9656257351171</v>
       </c>
       <c r="M41" t="n">
-        <v>266.8070510443919</v>
+        <v>241.9656257351171</v>
       </c>
       <c r="N41" t="n">
-        <v>397.5689225958512</v>
+        <v>301.2197257087211</v>
       </c>
       <c r="O41" t="n">
-        <v>528.3307941473106</v>
+        <v>429.781514144191</v>
       </c>
       <c r="P41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="Q41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="R41" t="n">
-        <v>528.3307941473106</v>
+        <v>424.261864801083</v>
       </c>
       <c r="S41" t="n">
-        <v>528.3307941473106</v>
+        <v>403.9051718707263</v>
       </c>
       <c r="T41" t="n">
-        <v>528.3307941473106</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="U41" t="n">
-        <v>528.3307941473106</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="V41" t="n">
-        <v>528.3307941473106</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="W41" t="n">
-        <v>528.3307941473106</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="X41" t="n">
-        <v>394.9139269383938</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="Y41" t="n">
-        <v>261.497059729477</v>
+        <v>272.7330583767258</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
       <c r="C42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
       <c r="D42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
       <c r="E42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
       <c r="F42" t="n">
-        <v>10.56661588294621</v>
+        <v>67.5547242010017</v>
       </c>
       <c r="G42" t="n">
-        <v>10.56661588294621</v>
+        <v>67.5547242010017</v>
       </c>
       <c r="H42" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I42" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J42" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K42" t="n">
-        <v>135.9241759407836</v>
+        <v>135.7463914465623</v>
       </c>
       <c r="L42" t="n">
-        <v>197.4124925310626</v>
+        <v>264.3081798820322</v>
       </c>
       <c r="M42" t="n">
-        <v>328.1743640825219</v>
+        <v>392.8699683175021</v>
       </c>
       <c r="N42" t="n">
-        <v>328.1743640825219</v>
+        <v>392.8699683175021</v>
       </c>
       <c r="O42" t="n">
-        <v>328.1743640825219</v>
+        <v>392.8699683175021</v>
       </c>
       <c r="P42" t="n">
-        <v>458.9362356339813</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="Q42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="R42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="S42" t="n">
-        <v>409.6353060881448</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="T42" t="n">
-        <v>409.6353060881448</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="U42" t="n">
-        <v>276.218438879228</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="V42" t="n">
-        <v>143.983483091863</v>
+        <v>388.2694559422414</v>
       </c>
       <c r="W42" t="n">
-        <v>10.56661588294621</v>
+        <v>289.0581528879734</v>
       </c>
       <c r="X42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.56661588294621</v>
+        <v>157.8860393939729</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="C43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="D43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="E43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="F43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="G43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="H43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K43" t="n">
-        <v>42.15271052133325</v>
+        <v>43.42683272991976</v>
       </c>
       <c r="L43" t="n">
-        <v>123.0997270750573</v>
+        <v>125.8257559864517</v>
       </c>
       <c r="M43" t="n">
-        <v>215.9206568132905</v>
+        <v>220.0985924274928</v>
       </c>
       <c r="N43" t="n">
-        <v>313.2443990147379</v>
+        <v>318.8742413317481</v>
       </c>
       <c r="O43" t="n">
-        <v>391.2165671956482</v>
+        <v>398.2983162154663</v>
       </c>
       <c r="P43" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="Q43" t="n">
-        <v>409.8447219831658</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="R43" t="n">
-        <v>285.4823447590185</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="S43" t="n">
-        <v>277.4003503007798</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="T43" t="n">
-        <v>143.983483091863</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="U43" t="n">
-        <v>143.983483091863</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="V43" t="n">
-        <v>10.56661588294621</v>
+        <v>319.5167746425293</v>
       </c>
       <c r="W43" t="n">
-        <v>10.56661588294621</v>
+        <v>188.3446611485288</v>
       </c>
       <c r="X43" t="n">
-        <v>10.56661588294621</v>
+        <v>57.17254765452833</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>143.983483091863</v>
+        <v>424.261864801083</v>
       </c>
       <c r="C44" t="n">
-        <v>143.983483091863</v>
+        <v>424.261864801083</v>
       </c>
       <c r="D44" t="n">
-        <v>143.983483091863</v>
+        <v>424.261864801083</v>
       </c>
       <c r="E44" t="n">
-        <v>143.983483091863</v>
+        <v>424.261864801083</v>
       </c>
       <c r="F44" t="n">
-        <v>143.983483091863</v>
+        <v>403.9051718707263</v>
       </c>
       <c r="G44" t="n">
-        <v>10.56661588294621</v>
+        <v>272.7330583767258</v>
       </c>
       <c r="H44" t="n">
-        <v>10.56661588294621</v>
+        <v>141.5609448827253</v>
       </c>
       <c r="I44" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J44" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K44" t="n">
-        <v>113.5816217938686</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="L44" t="n">
-        <v>177.1469957523409</v>
+        <v>138.9506198241947</v>
       </c>
       <c r="M44" t="n">
-        <v>177.1469957523409</v>
+        <v>172.6579372732512</v>
       </c>
       <c r="N44" t="n">
-        <v>307.9088673038003</v>
+        <v>301.2197257087211</v>
       </c>
       <c r="O44" t="n">
-        <v>438.6707388552596</v>
+        <v>429.781514144191</v>
       </c>
       <c r="P44" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="Q44" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="R44" t="n">
-        <v>528.3307941473106</v>
+        <v>424.261864801083</v>
       </c>
       <c r="S44" t="n">
-        <v>528.3307941473106</v>
+        <v>424.261864801083</v>
       </c>
       <c r="T44" t="n">
-        <v>528.3307941473106</v>
+        <v>424.261864801083</v>
       </c>
       <c r="U44" t="n">
-        <v>410.8172175096967</v>
+        <v>424.261864801083</v>
       </c>
       <c r="V44" t="n">
-        <v>410.8172175096967</v>
+        <v>424.261864801083</v>
       </c>
       <c r="W44" t="n">
-        <v>410.8172175096967</v>
+        <v>424.261864801083</v>
       </c>
       <c r="X44" t="n">
-        <v>410.8172175096967</v>
+        <v>424.261864801083</v>
       </c>
       <c r="Y44" t="n">
-        <v>277.4003503007798</v>
+        <v>424.261864801083</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.7791690540321</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="C45" t="n">
-        <v>104.7791690540321</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="D45" t="n">
-        <v>10.56661588294621</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="E45" t="n">
-        <v>10.56661588294621</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="F45" t="n">
-        <v>10.56661588294621</v>
+        <v>184.1786932009421</v>
       </c>
       <c r="G45" t="n">
-        <v>10.56661588294621</v>
+        <v>101.6511105637014</v>
       </c>
       <c r="H45" t="n">
-        <v>10.56661588294621</v>
+        <v>44.48521775142454</v>
       </c>
       <c r="I45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K45" t="n">
-        <v>66.65062097960322</v>
+        <v>135.7463914465623</v>
       </c>
       <c r="L45" t="n">
-        <v>197.4124925310626</v>
+        <v>135.7463914465623</v>
       </c>
       <c r="M45" t="n">
-        <v>197.4124925310626</v>
+        <v>192.9234340519729</v>
       </c>
       <c r="N45" t="n">
-        <v>328.1743640825219</v>
+        <v>321.4852224874428</v>
       </c>
       <c r="O45" t="n">
-        <v>458.9362356339813</v>
+        <v>450.0470109229126</v>
       </c>
       <c r="P45" t="n">
-        <v>458.9362356339813</v>
+        <v>450.0470109229126</v>
       </c>
       <c r="Q45" t="n">
-        <v>528.3307941473106</v>
+        <v>519.4415694362419</v>
       </c>
       <c r="R45" t="n">
-        <v>528.3307941473106</v>
+        <v>474.4752827692715</v>
       </c>
       <c r="S45" t="n">
-        <v>528.3307941473106</v>
+        <v>357.2611810000842</v>
       </c>
       <c r="T45" t="n">
-        <v>528.3307941473106</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="U45" t="n">
-        <v>485.1063840017684</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="V45" t="n">
-        <v>351.6895167928516</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="W45" t="n">
-        <v>218.2726495839348</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="X45" t="n">
-        <v>218.2726495839348</v>
+        <v>274.5100083939133</v>
       </c>
       <c r="Y45" t="n">
-        <v>218.2726495839348</v>
+        <v>274.5100083939133</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="C46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="D46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="E46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="F46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="G46" t="n">
-        <v>245.4664975896711</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="H46" t="n">
-        <v>136.3225232642409</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="I46" t="n">
-        <v>136.3225232642409</v>
+        <v>48.48779074663434</v>
       </c>
       <c r="J46" t="n">
-        <v>96.74217761635296</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K46" t="n">
-        <v>128.32827225474</v>
+        <v>43.42683272991976</v>
       </c>
       <c r="L46" t="n">
-        <v>209.275288808464</v>
+        <v>125.8257559864517</v>
       </c>
       <c r="M46" t="n">
-        <v>302.0962185466973</v>
+        <v>220.0985924274928</v>
       </c>
       <c r="N46" t="n">
-        <v>399.4199607481447</v>
+        <v>318.8742413317481</v>
       </c>
       <c r="O46" t="n">
-        <v>477.392128929055</v>
+        <v>398.2983162154663</v>
       </c>
       <c r="P46" t="n">
-        <v>528.3307941473106</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="Q46" t="n">
-        <v>528.3307941473106</v>
+        <v>450.6888881365298</v>
       </c>
       <c r="R46" t="n">
-        <v>528.3307941473106</v>
+        <v>327.807897202361</v>
       </c>
       <c r="S46" t="n">
-        <v>528.3307941473106</v>
+        <v>196.6357837083605</v>
       </c>
       <c r="T46" t="n">
-        <v>528.3307941473106</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="U46" t="n">
-        <v>493.8493662462597</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="V46" t="n">
-        <v>493.8493662462597</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="W46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="X46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
       <c r="Y46" t="n">
-        <v>360.4324990373429</v>
+        <v>65.46367021436004</v>
       </c>
     </row>
   </sheetData>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9090,16 +9090,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9169,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2411674072272</v>
+        <v>346.9203114885858</v>
       </c>
       <c r="M17" t="n">
-        <v>339.2778235681042</v>
+        <v>341.5001297458713</v>
       </c>
       <c r="N17" t="n">
-        <v>338.3446539374223</v>
+        <v>340.5669601151895</v>
       </c>
       <c r="O17" t="n">
-        <v>339.0298017625182</v>
+        <v>232.7054798880971</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9248,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>247.4859701207056</v>
+        <v>245.2172097724688</v>
       </c>
       <c r="M18" t="n">
-        <v>251.0656242628497</v>
+        <v>253.2879304406169</v>
       </c>
       <c r="N18" t="n">
-        <v>235.8720260467574</v>
+        <v>242.4956086019319</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5278347852758</v>
+        <v>253.750140963043</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9406,16 +9406,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>254.6070453318454</v>
+        <v>346.9203114885858</v>
       </c>
       <c r="M20" t="n">
-        <v>339.2778235681041</v>
+        <v>253.5416857960686</v>
       </c>
       <c r="N20" t="n">
-        <v>338.3446539374223</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>341.2521079402853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>246.7730293151904</v>
+        <v>248.9953354929576</v>
       </c>
       <c r="L21" t="n">
-        <v>247.4859701207056</v>
+        <v>249.7082762984728</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>253.2879304406169</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5278347852758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>168.4092077279268</v>
+        <v>240.6372374069248</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,10 +10828,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>319.9885156350499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>298.8430447887824</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>258.456877292274</v>
+        <v>365.6268073290477</v>
       </c>
       <c r="M41" t="n">
-        <v>362.4289317641004</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>361.4957621334186</v>
+        <v>289.2656898325545</v>
       </c>
       <c r="O41" t="n">
-        <v>362.1809099585143</v>
+        <v>359.9586037807472</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>200.6637904771257</v>
+        <v>268.4147721389347</v>
       </c>
       <c r="M42" t="n">
-        <v>274.216732458846</v>
+        <v>271.9944262810788</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11156,10 +11156,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>266.0571059511579</v>
+        <v>261.8245095544715</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>299.9738634128886</v>
+        <v>365.6268073290477</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>264.3940286303601</v>
       </c>
       <c r="N44" t="n">
-        <v>361.4957621334186</v>
+        <v>359.2734559556514</v>
       </c>
       <c r="O44" t="n">
-        <v>362.1809099585143</v>
+        <v>359.9586037807472</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>194.4919491730024</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>270.6370783167018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>199.8886224123321</v>
       </c>
       <c r="N45" t="n">
-        <v>263.424410620161</v>
+        <v>261.2021044423938</v>
       </c>
       <c r="O45" t="n">
-        <v>274.6789429812721</v>
+        <v>272.4566368035049</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23497,7 +23497,7 @@
         <v>372.7431424489358</v>
       </c>
       <c r="C14" t="n">
-        <v>332.7158400722319</v>
+        <v>355.2821925564627</v>
       </c>
       <c r="D14" t="n">
         <v>344.6923424061382</v>
@@ -23512,7 +23512,7 @@
         <v>405.3120383005902</v>
       </c>
       <c r="H14" t="n">
-        <v>303.8638117065915</v>
+        <v>329.4841029012223</v>
       </c>
       <c r="I14" t="n">
         <v>200.4851903558611</v>
@@ -23545,7 +23545,7 @@
         <v>139.8784187266049</v>
       </c>
       <c r="S14" t="n">
-        <v>173.4090791770697</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
         <v>213.1051503495866</v>
@@ -23563,7 +23563,7 @@
         <v>359.7404014639242</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.6269482468779</v>
+        <v>376.2472394415088</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>147.6543812408561</v>
       </c>
       <c r="F15" t="n">
-        <v>112.5121606946082</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G15" t="n">
         <v>127.3528179486658</v>
@@ -23594,7 +23594,7 @@
         <v>102.2447450219517</v>
       </c>
       <c r="I15" t="n">
-        <v>53.78564244223944</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>222.8098879348805</v>
       </c>
       <c r="W15" t="n">
-        <v>216.083992751744</v>
+        <v>241.7042839463748</v>
       </c>
       <c r="X15" t="n">
-        <v>170.1619947943018</v>
+        <v>195.7822859889327</v>
       </c>
       <c r="Y15" t="n">
         <v>195.6919965627596</v>
@@ -23667,7 +23667,7 @@
         <v>135.4303488083864</v>
       </c>
       <c r="G16" t="n">
-        <v>135.4339276596831</v>
+        <v>158.000280143914</v>
       </c>
       <c r="H16" t="n">
         <v>152.2364732928948</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.55105284251875</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R16" t="n">
         <v>167.3026921626247</v>
@@ -23706,7 +23706,7 @@
         <v>214.0258988224275</v>
       </c>
       <c r="T16" t="n">
-        <v>192.3345990191059</v>
+        <v>217.9548902137367</v>
       </c>
       <c r="U16" t="n">
         <v>276.3283301419461</v>
@@ -23715,7 +23715,7 @@
         <v>242.1469441092832</v>
       </c>
       <c r="W16" t="n">
-        <v>250.9120079274154</v>
+        <v>276.5322991220462</v>
       </c>
       <c r="X16" t="n">
         <v>215.7189561744923</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.3981154840687</v>
+        <v>216.7092368792229</v>
       </c>
       <c r="C17" t="n">
-        <v>202.9371655915957</v>
+        <v>310.4021835053484</v>
       </c>
       <c r="D17" t="n">
-        <v>301.2789057821025</v>
+        <v>299.8123333550238</v>
       </c>
       <c r="E17" t="n">
-        <v>328.5262342336814</v>
+        <v>215.9057652880041</v>
       </c>
       <c r="F17" t="n">
-        <v>353.471909903131</v>
+        <v>352.0053374760523</v>
       </c>
       <c r="G17" t="n">
-        <v>361.8986016765546</v>
+        <v>262.5276771958943</v>
       </c>
       <c r="H17" t="n">
-        <v>286.0706662771867</v>
+        <v>284.604093850108</v>
       </c>
       <c r="I17" t="n">
-        <v>157.0717537318255</v>
+        <v>155.6051813047468</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>96.46498210256924</v>
+        <v>94.99840967549056</v>
       </c>
       <c r="S17" t="n">
-        <v>46.68434340683346</v>
+        <v>42.99546480198765</v>
       </c>
       <c r="T17" t="n">
-        <v>169.6917137255509</v>
+        <v>168.2251412984722</v>
       </c>
       <c r="U17" t="n">
-        <v>197.9415170692561</v>
+        <v>196.4749446421774</v>
       </c>
       <c r="V17" t="n">
-        <v>178.4011778593502</v>
+        <v>272.8815502044758</v>
       </c>
       <c r="W17" t="n">
-        <v>295.8368328788326</v>
+        <v>294.3702604517539</v>
       </c>
       <c r="X17" t="n">
-        <v>316.3269648398886</v>
+        <v>314.8603924128099</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.8338028174732</v>
+        <v>331.3672303903945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113.1290478112869</v>
+        <v>111.6624753842082</v>
       </c>
       <c r="C18" t="n">
-        <v>119.3043631497353</v>
+        <v>117.8377907226566</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>92.57435729897963</v>
       </c>
       <c r="E18" t="n">
-        <v>104.2409446168205</v>
+        <v>102.7743721897418</v>
       </c>
       <c r="F18" t="n">
-        <v>91.66507655480343</v>
+        <v>90.19850412772476</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>57.36473597083734</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.75369831406269</v>
+        <v>45.28712588698401</v>
       </c>
       <c r="S18" t="n">
-        <v>118.2790352652574</v>
+        <v>24.752947749306</v>
       </c>
       <c r="T18" t="n">
-        <v>146.7605928562411</v>
+        <v>145.2940204291625</v>
       </c>
       <c r="U18" t="n">
-        <v>172.5372462423944</v>
+        <v>171.0706738153157</v>
       </c>
       <c r="V18" t="n">
-        <v>70.46486097001342</v>
+        <v>177.9298788837662</v>
       </c>
       <c r="W18" t="n">
-        <v>198.2908473223392</v>
+        <v>85.67037837666192</v>
       </c>
       <c r="X18" t="n">
-        <v>152.368849364897</v>
+        <v>39.74838041921979</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.2725509462959</v>
+        <v>150.8119875116452</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.4278443433569</v>
+        <v>13.80737539767961</v>
       </c>
       <c r="C19" t="n">
-        <v>113.8426852600474</v>
+        <v>112.3761128329687</v>
       </c>
       <c r="D19" t="n">
-        <v>95.21133717963191</v>
+        <v>93.74476475255324</v>
       </c>
       <c r="E19" t="n">
-        <v>93.02982680798873</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>92.0169121843508</v>
+        <v>90.55033975727213</v>
       </c>
       <c r="G19" t="n">
-        <v>114.5868435198783</v>
+        <v>113.1202710927996</v>
       </c>
       <c r="H19" t="n">
-        <v>108.8230366688591</v>
+        <v>107.3564642417805</v>
       </c>
       <c r="I19" t="n">
-        <v>102.0463390886778</v>
+        <v>100.5797666615992</v>
       </c>
       <c r="J19" t="n">
-        <v>39.95504427809233</v>
+        <v>38.48847185101365</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>31.29133498603526</v>
       </c>
       <c r="R19" t="n">
-        <v>14.95766519775762</v>
+        <v>122.4226831115104</v>
       </c>
       <c r="S19" t="n">
-        <v>61.6808718575604</v>
+        <v>169.1458897713131</v>
       </c>
       <c r="T19" t="n">
-        <v>65.60986324886964</v>
+        <v>61.9209846440238</v>
       </c>
       <c r="U19" t="n">
-        <v>169.7258561588201</v>
+        <v>231.4483210908318</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7335074852476</v>
+        <v>86.11303853957031</v>
       </c>
       <c r="W19" t="n">
-        <v>233.1188624980106</v>
+        <v>231.6522900709319</v>
       </c>
       <c r="X19" t="n">
-        <v>172.3055195504567</v>
+        <v>164.4978494507065</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.1805175135144</v>
+        <v>163.7139450864357</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.3297058249001</v>
+        <v>327.8631333978215</v>
       </c>
       <c r="C20" t="n">
-        <v>311.8687559324271</v>
+        <v>310.4021835053484</v>
       </c>
       <c r="D20" t="n">
-        <v>301.2789057821025</v>
+        <v>299.8123333550238</v>
       </c>
       <c r="E20" t="n">
-        <v>328.5262342336814</v>
+        <v>229.1553097530211</v>
       </c>
       <c r="F20" t="n">
-        <v>353.471909903131</v>
+        <v>240.8514409574537</v>
       </c>
       <c r="G20" t="n">
-        <v>361.8986016765546</v>
+        <v>249.2781327308774</v>
       </c>
       <c r="H20" t="n">
-        <v>286.0706662771867</v>
+        <v>173.4501973315095</v>
       </c>
       <c r="I20" t="n">
-        <v>157.0717537318255</v>
+        <v>155.6051813047468</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>94.99840967549056</v>
       </c>
       <c r="S20" t="n">
-        <v>155.6159337476649</v>
+        <v>154.1493613205862</v>
       </c>
       <c r="T20" t="n">
-        <v>169.6917137255509</v>
+        <v>168.2251412984722</v>
       </c>
       <c r="U20" t="n">
-        <v>89.00992672842467</v>
+        <v>196.4749446421774</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3481226315545</v>
+        <v>272.8815502044758</v>
       </c>
       <c r="W20" t="n">
-        <v>187.4232798683662</v>
+        <v>294.3702604517539</v>
       </c>
       <c r="X20" t="n">
-        <v>316.3269648398886</v>
+        <v>314.8603924128099</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.9022124766418</v>
+        <v>331.3672303903945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>113.1290478112869</v>
+        <v>111.6624753842082</v>
       </c>
       <c r="C21" t="n">
-        <v>119.3043631497353</v>
+        <v>117.8377907226566</v>
       </c>
       <c r="D21" t="n">
-        <v>94.04092972605831</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2409446168205</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.66507655480343</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.93938132463019</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>58.83130839791602</v>
+        <v>39.30586276244179</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575595</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.75369831406269</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.347444924425986</v>
+        <v>116.8124628381787</v>
       </c>
       <c r="T21" t="n">
-        <v>146.7605928562411</v>
+        <v>145.2940204291625</v>
       </c>
       <c r="U21" t="n">
-        <v>63.60565590156297</v>
+        <v>171.0706738153157</v>
       </c>
       <c r="V21" t="n">
-        <v>83.44950653864063</v>
+        <v>177.9298788837662</v>
       </c>
       <c r="W21" t="n">
-        <v>89.35925698150778</v>
+        <v>196.8242748952605</v>
       </c>
       <c r="X21" t="n">
-        <v>152.368849364897</v>
+        <v>150.9022769378184</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.2785599387239</v>
+        <v>150.8119875116452</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.4278443433569</v>
+        <v>124.9612719162782</v>
       </c>
       <c r="C22" t="n">
-        <v>113.8426852600474</v>
+        <v>1.222216314370144</v>
       </c>
       <c r="D22" t="n">
-        <v>95.21133717963191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>93.02982680798873</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>92.0169121843508</v>
+        <v>90.55033975727213</v>
       </c>
       <c r="G22" t="n">
-        <v>114.5868435198783</v>
+        <v>113.1202710927996</v>
       </c>
       <c r="H22" t="n">
-        <v>108.8230366688591</v>
+        <v>107.3564642417805</v>
       </c>
       <c r="I22" t="n">
-        <v>102.0463390886778</v>
+        <v>100.5797666615992</v>
       </c>
       <c r="J22" t="n">
-        <v>39.95504427809233</v>
+        <v>14.73824241229677</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>31.29133498603526</v>
       </c>
       <c r="R22" t="n">
-        <v>14.95766519775765</v>
+        <v>11.26878659291179</v>
       </c>
       <c r="S22" t="n">
-        <v>61.68087185756043</v>
+        <v>169.1458897713131</v>
       </c>
       <c r="T22" t="n">
-        <v>174.5414535897011</v>
+        <v>173.0748811626224</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9833031770791</v>
+        <v>231.4483210908318</v>
       </c>
       <c r="V22" t="n">
-        <v>198.7335074852476</v>
+        <v>197.2669350581689</v>
       </c>
       <c r="W22" t="n">
-        <v>233.1188624980106</v>
+        <v>231.6522900709319</v>
       </c>
       <c r="X22" t="n">
-        <v>109.1164821913665</v>
+        <v>170.838947123378</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1805175135144</v>
+        <v>163.7139450864357</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>161.9628630205385</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
         <v>265.2864087692679</v>
@@ -24220,7 +24220,7 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>186.4015686799001</v>
       </c>
       <c r="H23" t="n">
         <v>250.0781692643521</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X23" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>55.82701692697947</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>20.53360303411647</v>
       </c>
       <c r="C24" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
         <v>55.6725795419688</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.426529053315875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>55.53338000522669</v>
       </c>
       <c r="W25" t="n">
-        <v>56.93565331591597</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>292.5337372208467</v>
+        <v>257.6856101430304</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>38.37860454516533</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24524,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>30.4541309992636</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>127.008135943862</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.854009128716</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24612,7 +24612,7 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>41.92639284018176</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>197.1263654851759</v>
@@ -24669,7 +24669,7 @@
         <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293.3372088120655</v>
+        <v>52.32291993440646</v>
       </c>
       <c r="C29" t="n">
         <v>275.8762589195925</v>
@@ -24688,13 +24688,13 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
         <v>76.46512401263732</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
         <v>119.6234367348303</v>
@@ -24742,13 +24742,13 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0284052509311</v>
+        <v>84.55592016119652</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>55.80785384911371</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>15.94771707133673</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
@@ -24858,7 +24858,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>117.5450272833697</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>6.937541160918727</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>74.13061448483285</v>
       </c>
       <c r="H32" t="n">
-        <v>239.316967963124</v>
+        <v>142.9655384884139</v>
       </c>
       <c r="I32" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>69.22614899015497</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.068845687110809</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X32" t="n">
         <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
-        <v>45.06581562575138</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>43.52068757073229</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>3.175010716020722</v>
       </c>
       <c r="H33" t="n">
         <v>12.07761008385333</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C34" t="n">
         <v>67.0889869459847</v>
@@ -25086,13 +25086,13 @@
         <v>46.27612849392604</v>
       </c>
       <c r="F34" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>37.53013530666364</v>
       </c>
       <c r="I34" t="n">
         <v>55.29264077461515</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.107089270979898</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.56171863317837</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C35" t="n">
         <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>254.5252074680398</v>
+        <v>13.51091859038075</v>
       </c>
       <c r="E35" t="n">
         <v>281.7725359196186</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S35" t="n">
-        <v>97.47595233386009</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
         <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>15.30903867404976</v>
       </c>
       <c r="W35" t="n">
         <v>249.0831345647699</v>
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>23.6503737152786</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>53.06708398636793</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>135.2260953604244</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>125.551821236394</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>58.6850723406391</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>318.5685045236721</v>
+        <v>317.1019320965934</v>
       </c>
       <c r="C38" t="n">
-        <v>301.107554631199</v>
+        <v>299.6409822041204</v>
       </c>
       <c r="D38" t="n">
-        <v>290.5177044808744</v>
+        <v>289.0511320537958</v>
       </c>
       <c r="E38" t="n">
-        <v>317.7650329324533</v>
+        <v>316.2984605053746</v>
       </c>
       <c r="F38" t="n">
-        <v>238.6954562440329</v>
+        <v>341.2441361748242</v>
       </c>
       <c r="G38" t="n">
-        <v>351.1374003753265</v>
+        <v>349.6708279482478</v>
       </c>
       <c r="H38" t="n">
-        <v>275.3094649759586</v>
+        <v>273.8428925488799</v>
       </c>
       <c r="I38" t="n">
-        <v>146.3105524305974</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.23720837426251</v>
       </c>
       <c r="S38" t="n">
-        <v>144.8547324464369</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>158.9305124243228</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>187.180315768028</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.19292364729816</v>
+        <v>21.1060600255887</v>
       </c>
       <c r="W38" t="n">
-        <v>69.68163389457627</v>
+        <v>220.704919112836</v>
       </c>
       <c r="X38" t="n">
-        <v>305.5657635386605</v>
+        <v>304.0991911115818</v>
       </c>
       <c r="Y38" t="n">
-        <v>106.6786038332168</v>
+        <v>320.6060290891664</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.3678465100588</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>108.5431618485072</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>29.78908443203807</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93.47974331559244</v>
+        <v>92.01317088851377</v>
       </c>
       <c r="F39" t="n">
-        <v>80.90387525357538</v>
+        <v>79.4373028264967</v>
       </c>
       <c r="G39" t="n">
-        <v>73.17818002340213</v>
+        <v>71.71160759632346</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.23129571160658</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575596</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>160.3094725140876</v>
       </c>
       <c r="V39" t="n">
-        <v>168.6352500096168</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>186.0630735940324</v>
       </c>
       <c r="X39" t="n">
-        <v>141.607648063669</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>112.7756452743089</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.6666430421288</v>
+        <v>114.2000706150501</v>
       </c>
       <c r="C40" t="n">
-        <v>103.0814839588193</v>
+        <v>101.6149115317407</v>
       </c>
       <c r="D40" t="n">
-        <v>84.45013587840386</v>
+        <v>82.98356345132518</v>
       </c>
       <c r="E40" t="n">
-        <v>82.26862550676067</v>
+        <v>80.802053079682</v>
       </c>
       <c r="F40" t="n">
-        <v>81.25571088312275</v>
+        <v>79.78913845604407</v>
       </c>
       <c r="G40" t="n">
-        <v>103.8256422186503</v>
+        <v>102.3590697915716</v>
       </c>
       <c r="H40" t="n">
-        <v>98.06183536763108</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>91.28513778744978</v>
+        <v>89.81856536037111</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19384297686427</v>
+        <v>27.7272705497856</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>20.53013368480721</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>111.6614818102823</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>158.3846884700851</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>162.3136798613943</v>
       </c>
       <c r="U40" t="n">
-        <v>222.1536922166824</v>
+        <v>169.2175003278679</v>
       </c>
       <c r="V40" t="n">
-        <v>187.9723061840195</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>195.0898985649659</v>
+        <v>220.8910887697038</v>
       </c>
       <c r="X40" t="n">
-        <v>161.5443182492286</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4193162122863</v>
+        <v>152.9527437852076</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.5592037382169</v>
+        <v>327.0926313111382</v>
       </c>
       <c r="C41" t="n">
-        <v>311.0982538457438</v>
+        <v>179.7712890596047</v>
       </c>
       <c r="D41" t="n">
-        <v>300.5084036954192</v>
+        <v>299.0418312683406</v>
       </c>
       <c r="E41" t="n">
-        <v>327.7557321469981</v>
+        <v>196.428767360859</v>
       </c>
       <c r="F41" t="n">
-        <v>352.7014078164477</v>
+        <v>351.2348353893691</v>
       </c>
       <c r="G41" t="n">
-        <v>229.0454010530437</v>
+        <v>359.6615271627927</v>
       </c>
       <c r="H41" t="n">
-        <v>285.3001641905034</v>
+        <v>283.8335917634248</v>
       </c>
       <c r="I41" t="n">
-        <v>39.96281077390439</v>
+        <v>154.8346792180635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>95.69448001588599</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.8454316609817</v>
+        <v>133.2257332328498</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9212116388676</v>
+        <v>37.5942468527285</v>
       </c>
       <c r="U41" t="n">
-        <v>197.1710149825728</v>
+        <v>195.7044425554941</v>
       </c>
       <c r="V41" t="n">
-        <v>273.5776205448712</v>
+        <v>272.1110481177925</v>
       </c>
       <c r="W41" t="n">
-        <v>295.0663307921493</v>
+        <v>293.5997583650707</v>
       </c>
       <c r="X41" t="n">
-        <v>183.4737642163777</v>
+        <v>314.0898903261267</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.9806021939622</v>
+        <v>330.5967283037112</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.3585457246036</v>
+        <v>110.891973297525</v>
       </c>
       <c r="C42" t="n">
-        <v>118.533861063052</v>
+        <v>117.0672886359734</v>
       </c>
       <c r="D42" t="n">
-        <v>93.27042763937506</v>
+        <v>91.80385521229638</v>
       </c>
       <c r="E42" t="n">
-        <v>103.4704425301372</v>
+        <v>102.0038701030586</v>
       </c>
       <c r="F42" t="n">
-        <v>90.89457446812018</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>83.16887923794694</v>
+        <v>81.70230681086827</v>
       </c>
       <c r="H42" t="n">
-        <v>58.06080631123277</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.22199492615138</v>
+        <v>33.75542249907271</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.98319622737944</v>
+        <v>44.51662380030076</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>116.0419607514955</v>
       </c>
       <c r="T42" t="n">
-        <v>145.9900907695579</v>
+        <v>144.5235183424792</v>
       </c>
       <c r="U42" t="n">
-        <v>39.68404561888349</v>
+        <v>170.3001717286324</v>
       </c>
       <c r="V42" t="n">
-        <v>47.71334299467023</v>
+        <v>47.29898443802242</v>
       </c>
       <c r="W42" t="n">
-        <v>65.43764669882825</v>
+        <v>97.83458278485186</v>
       </c>
       <c r="X42" t="n">
-        <v>151.5983472782138</v>
+        <v>20.27138249207462</v>
       </c>
       <c r="Y42" t="n">
-        <v>151.5080578520407</v>
+        <v>150.041485424962</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6573422566736</v>
+        <v>124.1907698295949</v>
       </c>
       <c r="C43" t="n">
-        <v>113.0721831733641</v>
+        <v>111.6056107462855</v>
       </c>
       <c r="D43" t="n">
-        <v>94.44083509294866</v>
+        <v>92.97426266586999</v>
       </c>
       <c r="E43" t="n">
-        <v>92.25932472130548</v>
+        <v>90.7927522942268</v>
       </c>
       <c r="F43" t="n">
-        <v>91.24641009766755</v>
+        <v>89.77983767058888</v>
       </c>
       <c r="G43" t="n">
-        <v>113.8163414331951</v>
+        <v>112.3497690061164</v>
       </c>
       <c r="H43" t="n">
-        <v>108.0525345821759</v>
+        <v>106.5859621550972</v>
       </c>
       <c r="I43" t="n">
-        <v>101.2758370019946</v>
+        <v>99.80926457491591</v>
       </c>
       <c r="J43" t="n">
-        <v>39.18454219140908</v>
+        <v>37.71796976433041</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>30.52083289935202</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.6521810248271</v>
       </c>
       <c r="S43" t="n">
-        <v>161.8407855980523</v>
+        <v>168.3753876846299</v>
       </c>
       <c r="T43" t="n">
-        <v>41.68825296619013</v>
+        <v>172.3043790759391</v>
       </c>
       <c r="U43" t="n">
-        <v>232.1443914312272</v>
+        <v>230.6778190041485</v>
       </c>
       <c r="V43" t="n">
-        <v>65.88030686173664</v>
+        <v>66.63604061242515</v>
       </c>
       <c r="W43" t="n">
-        <v>232.3483604113273</v>
+        <v>101.0213956251881</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5350174637734</v>
+        <v>40.2080526776343</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.4100154268311</v>
+        <v>116.627563896607</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>196.4765052013892</v>
+        <v>327.0926313111382</v>
       </c>
       <c r="C44" t="n">
-        <v>311.0982538457438</v>
+        <v>309.6316814186652</v>
       </c>
       <c r="D44" t="n">
-        <v>300.5084036954192</v>
+        <v>299.0418312683406</v>
       </c>
       <c r="E44" t="n">
-        <v>327.7557321469981</v>
+        <v>326.2891597199194</v>
       </c>
       <c r="F44" t="n">
-        <v>352.7014078164477</v>
+        <v>331.081709388316</v>
       </c>
       <c r="G44" t="n">
-        <v>229.0454010530437</v>
+        <v>229.8011348037322</v>
       </c>
       <c r="H44" t="n">
-        <v>285.3001641905034</v>
+        <v>153.9731994043643</v>
       </c>
       <c r="I44" t="n">
-        <v>156.3012516451422</v>
+        <v>24.97428685900306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>95.69448001588599</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.8454316609817</v>
+        <v>153.378859233903</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9212116388676</v>
+        <v>167.454639211789</v>
       </c>
       <c r="U44" t="n">
-        <v>80.83257411133499</v>
+        <v>195.7044425554941</v>
       </c>
       <c r="V44" t="n">
-        <v>273.5776205448712</v>
+        <v>272.1110481177925</v>
       </c>
       <c r="W44" t="n">
-        <v>295.0663307921493</v>
+        <v>293.5997583650707</v>
       </c>
       <c r="X44" t="n">
-        <v>315.5564627532053</v>
+        <v>314.0898903261267</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.9806021939622</v>
+        <v>330.5967283037112</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>110.891973297525</v>
       </c>
       <c r="C45" t="n">
-        <v>118.533861063052</v>
+        <v>117.0672886359734</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>91.80385521229638</v>
       </c>
       <c r="E45" t="n">
-        <v>103.4704425301372</v>
+        <v>102.0038701030586</v>
       </c>
       <c r="F45" t="n">
-        <v>90.89457446812018</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>83.16887923794694</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.06080631123277</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.22199492615138</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.98319622737944</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.5085331785741</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>145.9900907695579</v>
+        <v>62.59985746237012</v>
       </c>
       <c r="U45" t="n">
-        <v>128.9745781116244</v>
+        <v>170.3001717286324</v>
       </c>
       <c r="V45" t="n">
-        <v>46.54325068733391</v>
+        <v>177.1593767970829</v>
       </c>
       <c r="W45" t="n">
-        <v>65.43764669882825</v>
+        <v>196.0537728085772</v>
       </c>
       <c r="X45" t="n">
-        <v>151.5983472782138</v>
+        <v>150.1317748511351</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.5080578520407</v>
+        <v>150.041485424962</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.6573422566736</v>
+        <v>124.1907698295949</v>
       </c>
       <c r="C46" t="n">
-        <v>113.0721831733641</v>
+        <v>111.6056107462855</v>
       </c>
       <c r="D46" t="n">
-        <v>94.44083509294866</v>
+        <v>92.97426266586999</v>
       </c>
       <c r="E46" t="n">
-        <v>92.25932472130548</v>
+        <v>90.7927522942268</v>
       </c>
       <c r="F46" t="n">
-        <v>91.24641009766755</v>
+        <v>89.77983767058888</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.3497690061164</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>106.5859621550972</v>
       </c>
       <c r="I46" t="n">
-        <v>101.2758370019946</v>
+        <v>83.00314390186747</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.98740532643069</v>
+        <v>30.52083289935202</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1187534519058</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>169.8419601117085</v>
+        <v>38.5149953255694</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7709515030178</v>
+        <v>42.44398671687864</v>
       </c>
       <c r="U46" t="n">
-        <v>198.0077778091868</v>
+        <v>230.6778190041485</v>
       </c>
       <c r="V46" t="n">
-        <v>197.9630053985643</v>
+        <v>196.4964329714856</v>
       </c>
       <c r="W46" t="n">
-        <v>100.2656618744996</v>
+        <v>230.8817879842486</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5350174637734</v>
+        <v>170.0684450366948</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.4100154268311</v>
+        <v>162.9434429997524</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303169.5600015467</v>
+        <v>285276.4726644809</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447050.8566084413</v>
+        <v>451495.5719395084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447050.8566084413</v>
+        <v>451495.5719395084</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>601384.7567895044</v>
+        <v>601384.7567895046</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>624087.2521481328</v>
+        <v>624087.2521481327</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>532278.7611474459</v>
+        <v>550378.3176720924</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462215.4009665294</v>
+        <v>464066.2828611656</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462215.4009665294</v>
+        <v>464066.2828611657</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>737348.7048453348</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453349</v>
+        <v>737348.7048453348</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="E2" t="n">
+        <v>216683.9137227131</v>
+      </c>
+      <c r="F2" t="n">
         <v>216683.9137227132</v>
       </c>
-      <c r="F2" t="n">
-        <v>229748.6512280646</v>
-      </c>
       <c r="G2" t="n">
-        <v>365785.5801167073</v>
+        <v>370065.4943282956</v>
       </c>
       <c r="H2" t="n">
-        <v>365785.5801167072</v>
+        <v>370065.4943282956</v>
       </c>
       <c r="I2" t="n">
         <v>503863.4945805121</v>
       </c>
       <c r="J2" t="n">
-        <v>503863.4945805121</v>
+        <v>503863.4945805119</v>
       </c>
       <c r="K2" t="n">
         <v>503863.4945805119</v>
       </c>
       <c r="L2" t="n">
-        <v>527901.4308425889</v>
+        <v>527901.430842589</v>
       </c>
       <c r="M2" t="n">
-        <v>527901.430842589</v>
+        <v>527901.4308425891</v>
       </c>
       <c r="N2" t="n">
-        <v>435606.6040320698</v>
+        <v>449856.6766914866</v>
       </c>
       <c r="O2" t="n">
-        <v>377401.6006200617</v>
+        <v>379787.6128827473</v>
       </c>
       <c r="P2" t="n">
-        <v>377401.6006200617</v>
+        <v>379787.6128827473</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832794</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>57565.1267257149</v>
+        <v>66369.62296819154</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63917.56088787944</v>
+        <v>62153.34506511848</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43339.71034021096</v>
+        <v>44512.9682818739</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>95325.00563235153</v>
       </c>
       <c r="F4" t="n">
-        <v>100901.3908886914</v>
+        <v>95325.00563235153</v>
       </c>
       <c r="G4" t="n">
-        <v>179752.8096218822</v>
+        <v>182273.4269627147</v>
       </c>
       <c r="H4" t="n">
-        <v>179752.8096218821</v>
+        <v>182273.4269627147</v>
       </c>
       <c r="I4" t="n">
         <v>255716.9332949485</v>
@@ -26453,13 +26453,13 @@
         <v>270986.7915526711</v>
       </c>
       <c r="N4" t="n">
-        <v>214645.4321375194</v>
+        <v>221421.5842373985</v>
       </c>
       <c r="O4" t="n">
-        <v>185075.3666298579</v>
+        <v>186787.6151151744</v>
       </c>
       <c r="P4" t="n">
-        <v>185075.3666298578</v>
+        <v>186787.6151151744</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>2397.621796901122</v>
+        <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>11112.67298853617</v>
+        <v>11371.08248151649</v>
       </c>
       <c r="H5" t="n">
-        <v>11112.67298853617</v>
+        <v>11371.08248151649</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26505,13 +26505,13 @@
         <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>18490.27078713468</v>
+        <v>20171.27776914031</v>
       </c>
       <c r="O5" t="n">
-        <v>12585.03570677812</v>
+        <v>12573.21276854195</v>
       </c>
       <c r="P5" t="n">
-        <v>12585.03570677812</v>
+        <v>12573.21276854195</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278197.9656792313</v>
+        <v>278153.8299005501</v>
       </c>
       <c r="C6" t="n">
-        <v>278197.9656792313</v>
+        <v>278153.8299005501</v>
       </c>
       <c r="D6" t="n">
-        <v>278197.9656792312</v>
+        <v>278153.8299005498</v>
       </c>
       <c r="E6" t="n">
-        <v>112526.4406264583</v>
+        <v>98019.39398325981</v>
       </c>
       <c r="F6" t="n">
-        <v>119108.7589876393</v>
+        <v>106011.9533548958</v>
       </c>
       <c r="G6" t="n">
-        <v>117354.9707805741</v>
+        <v>99804.91473394066</v>
       </c>
       <c r="H6" t="n">
-        <v>174920.097506289</v>
+        <v>166174.5377021322</v>
       </c>
       <c r="I6" t="n">
-        <v>162059.8461067368</v>
+        <v>157294.2258656826</v>
       </c>
       <c r="J6" t="n">
-        <v>217984.8476229804</v>
+        <v>211455.0115591652</v>
       </c>
       <c r="K6" t="n">
-        <v>225977.4069946161</v>
+        <v>219447.570930801</v>
       </c>
       <c r="L6" t="n">
-        <v>190501.0912265666</v>
+        <v>183465.717672813</v>
       </c>
       <c r="M6" t="n">
-        <v>233840.8015667777</v>
+        <v>227978.685954687</v>
       </c>
       <c r="N6" t="n">
-        <v>202470.9011074157</v>
+        <v>200233.7892353265</v>
       </c>
       <c r="O6" t="n">
-        <v>179741.1982834258</v>
+        <v>170450.3966658335</v>
       </c>
       <c r="P6" t="n">
-        <v>179741.1982834258</v>
+        <v>170450.3966658335</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="O2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="P2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="3">
@@ -26801,13 +26801,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26825,13 +26825,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.41343662403564</v>
+        <v>44.88000905111432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575595</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234238</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.31129914620058</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.41343662403564</v>
+        <v>44.88000905111432</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575595</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>83.31129914620058</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="K19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="L19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="M19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="N19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="O19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="P19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="R19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="C22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="D22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="E22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="F22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="J22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="K22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="L22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="M22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="N22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="O22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="P22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="R22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="S22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="T22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="U22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="V22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="W22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="X22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565913</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="C38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="D38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="E38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="F38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="G38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="H38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="I38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="S38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="T38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="U38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="V38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="W38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="X38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="C39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="D39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="E39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="F39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="G39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="H39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="I39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="S39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="T39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="U39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="V39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="W39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="X39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="C40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="D40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="E40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="F40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="G40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="H40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="I40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="J40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="K40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="L40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="M40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="N40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="O40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="P40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="R40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="S40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="T40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="U40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="V40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="W40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="X40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688717</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="K43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="L43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="M43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="N43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="O43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="P43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="R43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="C46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="D46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="E46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="F46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="G46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="H46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="I46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="J46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="K46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="L46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="M46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="N46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="O46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="P46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="R46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="S46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="T46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="U46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="V46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="W46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="X46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234237</v>
       </c>
     </row>
   </sheetData>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4747524372399081</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="M17" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="N17" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="O17" t="n">
-        <v>108.9315903408314</v>
+        <v>2.607268466410364</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>108.9315903408314</v>
+        <v>106.6628299925946</v>
       </c>
       <c r="M18" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="N18" t="n">
-        <v>104.5303139634241</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="O18" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>31.13464401269759</v>
+        <v>32.60121643977627</v>
       </c>
       <c r="L19" t="n">
-        <v>80.99416109889658</v>
+        <v>82.46073352597526</v>
       </c>
       <c r="M19" t="n">
-        <v>92.98801280042103</v>
+        <v>94.45458522749971</v>
       </c>
       <c r="N19" t="n">
-        <v>97.53630821780904</v>
+        <v>99.00288064488771</v>
       </c>
       <c r="O19" t="n">
-        <v>77.98926375262012</v>
+        <v>79.45583617969879</v>
       </c>
       <c r="P19" t="n">
-        <v>50.68269510347393</v>
+        <v>52.14926753055261</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>18.84063036185816</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="M20" t="n">
-        <v>108.9315903408314</v>
+        <v>23.19545256879586</v>
       </c>
       <c r="N20" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="L21" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>111.1538965185986</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>34.43480031359655</v>
+        <v>106.6628299925946</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31.13464401269759</v>
+        <v>32.60121643977627</v>
       </c>
       <c r="L22" t="n">
-        <v>80.99416109889658</v>
+        <v>82.46073352597526</v>
       </c>
       <c r="M22" t="n">
-        <v>92.98801280042103</v>
+        <v>94.45458522749971</v>
       </c>
       <c r="N22" t="n">
-        <v>97.53630821780904</v>
+        <v>99.00288064488771</v>
       </c>
       <c r="O22" t="n">
-        <v>77.98926375262012</v>
+        <v>79.45583617969879</v>
       </c>
       <c r="P22" t="n">
-        <v>50.68269510347393</v>
+        <v>52.14926753055261</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37153,7 +37153,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>84.22210066506267</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830282</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>167.5013327054491</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.89584531392565</v>
+        <v>43.36241774100432</v>
       </c>
       <c r="L40" t="n">
-        <v>91.75536240012464</v>
+        <v>93.22193482720331</v>
       </c>
       <c r="M40" t="n">
-        <v>103.7492141016491</v>
+        <v>105.2157865287278</v>
       </c>
       <c r="N40" t="n">
-        <v>108.2975095190371</v>
+        <v>109.7640819461158</v>
       </c>
       <c r="O40" t="n">
-        <v>88.75046505384817</v>
+        <v>90.21703748092685</v>
       </c>
       <c r="P40" t="n">
-        <v>61.44389640470199</v>
+        <v>62.91046883178066</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>22.69046232228681</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M41" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>132.0826985368276</v>
+        <v>59.85262623596362</v>
       </c>
       <c r="O41" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>62.10941069725148</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M42" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>132.0826985368276</v>
+        <v>127.8501021401413</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>31.90514609938084</v>
+        <v>33.37171852645952</v>
       </c>
       <c r="L43" t="n">
-        <v>81.76466318557983</v>
+        <v>83.23123561265851</v>
       </c>
       <c r="M43" t="n">
-        <v>93.75851488710428</v>
+        <v>95.22508731418296</v>
       </c>
       <c r="N43" t="n">
-        <v>98.30681030449229</v>
+        <v>99.77338273157096</v>
       </c>
       <c r="O43" t="n">
-        <v>78.75976583930337</v>
+        <v>80.22633826638204</v>
       </c>
       <c r="P43" t="n">
-        <v>51.45319719015718</v>
+        <v>52.91976961723586</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>64.20744844290135</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.04779540308733</v>
       </c>
       <c r="N44" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>56.65051019864345</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.7545884903138</v>
       </c>
       <c r="N45" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="O45" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.90514609938084</v>
+        <v>33.37171852645952</v>
       </c>
       <c r="L46" t="n">
-        <v>81.76466318557983</v>
+        <v>83.23123561265851</v>
       </c>
       <c r="M46" t="n">
-        <v>93.75851488710428</v>
+        <v>95.22508731418296</v>
       </c>
       <c r="N46" t="n">
-        <v>98.30681030449229</v>
+        <v>99.77338273157096</v>
       </c>
       <c r="O46" t="n">
-        <v>78.75976583930337</v>
+        <v>80.22633826638204</v>
       </c>
       <c r="P46" t="n">
-        <v>51.45319719015718</v>
+        <v>52.91976961723586</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
